--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6363B9-CAA2-40C0-8CC1-E3542C2F65D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC51EF9-CD9F-442E-A581-935D6F3BB001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="LockObject" sheetId="4" r:id="rId3"/>
     <sheet name="Talk" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,11 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더미이다
-ㅁㄴㅇㄹ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,19 +225,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터 총 개수</t>
-  </si>
-  <si>
-    <t>데이터 총 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>필요한 아이템 Idx 배열
 그냥 잠겨있게 하고 싶으면 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1: 데이터 개수(row),
+C1: 자료형 개수(column)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 데이터 열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#필독!!
+B1, C1 꼭 넣어주기! 안 넣어주면 안돌아감
+자료형에는 int, string, bool, int[], string[], bool[] 으로만 넣어주세요
+ [] 자료형 사용시 @ 로 각 문단 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미다@므느으르</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +293,23 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -322,10 +351,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,9 +405,19 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,34 +698,44 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="35" style="5" customWidth="1"/>
     <col min="6" max="6" width="48.75" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="5">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>2</v>
       </c>
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
+        <v>5</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -702,7 +752,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -722,7 +772,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -740,9 +790,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -757,7 +807,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -768,13 +818,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,6 +913,9 @@
       <c r="B32" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -871,35 +924,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="5">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -908,12 +971,12 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -925,12 +988,12 @@
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -939,71 +1002,71 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -1055,6 +1118,9 @@
       <c r="B32" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1065,33 +1131,42 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="13" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="37.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>51</v>
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B1" s="5">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
+        <v>5</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -1100,15 +1175,15 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1120,15 +1195,15 @@
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1137,18 +1212,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1157,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="7">
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,16 +1247,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E6" s="7">
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1190,16 +1265,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1278,6 +1353,9 @@
       <c r="A32" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1285,47 +1363,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68EE20E-2BF6-4C51-88FD-21FEB6050E4A}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="48.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>51</v>
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B1" s="5">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1334,13 +1422,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1351,11 +1439,11 @@
       <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1363,12 +1451,12 @@
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
+      <c r="D5" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -1377,54 +1465,54 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="3"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="3"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="3"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="3"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="3"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="3"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="3"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="3"/>
     </row>
@@ -1493,7 +1581,13 @@
       <c r="B32" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{813D23E4-F9C6-4ED3-882D-E7EBB76591A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC51EF9-CD9F-442E-A581-935D6F3BB001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3361A6-E80A-4D9D-ABDF-6AC40E61AB05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅁㄴㅇㄻㄴㅇㄻㄴㅇㄹ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,17 +240,27 @@
   </si>
   <si>
     <t>더미이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미다,,,안녕 내이름은 더미야</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#필독!!
 B1, C1 꼭 넣어주기! 안 넣어주면 안돌아감
 자료형에는 int, string, bool, int[], string[], bool[] 으로만 넣어주세요
- [] 자료형 사용시 @ 로 각 문단 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미다@므느으르</t>
+ [] 자료형 사용시  ,,,  로 각 문단 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,,,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁㄴㅇㄹ
+asdf
+마나오리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,14 +302,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,11 +349,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -405,19 +402,15 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -698,7 +691,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -713,8 +706,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>52</v>
+      <c r="A1" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -724,18 +717,18 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -752,7 +745,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -772,7 +765,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -792,7 +785,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -807,7 +800,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -926,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -940,8 +933,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>52</v>
+      <c r="A1" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -951,18 +944,16 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -976,7 +967,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -993,7 +984,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1010,7 +1001,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1131,7 +1122,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1145,8 +1136,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>52</v>
+      <c r="A1" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1156,17 +1147,15 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -1175,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>28</v>
@@ -1183,7 +1172,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1203,7 +1192,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1221,9 +1210,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1234,11 +1223,11 @@
       <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7">
-        <v>-1</v>
+      <c r="E5" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1247,16 +1236,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="7">
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1265,16 +1254,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1365,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68EE20E-2BF6-4C51-88FD-21FEB6050E4A}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1379,8 +1368,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>52</v>
+      <c r="A1" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1390,30 +1379,28 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1428,7 +1415,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1443,7 +1430,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1451,8 +1438,8 @@
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>56</v>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1585,10 +1572,8 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{813D23E4-F9C6-4ED3-882D-E7EBB76591A8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3361A6-E80A-4D9D-ABDF-6AC40E61AB05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B9CA2-3004-4193-B809-E8282E0C3B16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
-    <sheet name="ScriptObject" sheetId="2" r:id="rId2"/>
-    <sheet name="LockObject" sheetId="4" r:id="rId3"/>
+    <sheet name="Script" sheetId="2" r:id="rId2"/>
+    <sheet name="Lock" sheetId="4" r:id="rId3"/>
     <sheet name="Talk" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scriptableScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scripts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +117,6 @@
   </si>
   <si>
     <t>침대다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이불이 흐트러져 있는 침대다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,10 +138,6 @@
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstInteractString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,13 +242,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,,,-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅁㄴㅇㄹ
-asdf
-마나오리</t>
+    <t>interactString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이불이 흐트러져 있는 침대다
+,,,….치워야 하는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미임,,,더미라고요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,,,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미임,,,더미인데 열릴리가 없잖아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -718,17 +717,17 @@
         <v>5</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -745,7 +744,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -765,7 +764,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -785,7 +784,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -800,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -919,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -934,11 +933,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
@@ -950,10 +949,10 @@
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -967,7 +966,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -984,7 +983,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -993,45 +992,56 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
@@ -1121,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1147,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1152,10 +1162,10 @@
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -1164,15 +1174,15 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1184,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>19</v>
@@ -1192,7 +1202,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1201,18 +1211,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1221,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>56</v>
@@ -1236,16 +1246,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7">
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1254,16 +1264,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1347,6 +1357,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1369,7 +1380,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1385,22 +1396,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1415,7 +1426,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1430,7 +1441,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1439,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5"/>
     </row>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B9CA2-3004-4193-B809-E8282E0C3B16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC10E262-32A5-45C8-913C-2D165953825C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="Script" sheetId="2" r:id="rId2"/>
     <sheet name="Lock" sheetId="4" r:id="rId3"/>
-    <sheet name="Talk" sheetId="5" r:id="rId4"/>
+    <sheet name="SaveData" sheetId="7" r:id="rId4"/>
+    <sheet name="Talk" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +261,18 @@
   </si>
   <si>
     <t>더미임,,,더미인데 열릴리가 없잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,10 +714,11 @@
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="35" style="5" customWidth="1"/>
     <col min="6" max="6" width="48.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>48</v>
       </c>
@@ -714,7 +728,7 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>52</v>
@@ -722,7 +736,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>39</v>
       </c>
@@ -741,8 +755,11 @@
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -761,8 +778,11 @@
       <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -781,8 +801,11 @@
       <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -801,8 +824,11 @@
       <c r="F5" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -818,42 +844,46 @@
       <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -919,7 +949,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,6 +959,7 @@
     <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -941,7 +972,7 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -963,6 +994,9 @@
       <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -980,6 +1014,9 @@
       <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -997,6 +1034,9 @@
       <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="F4" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
@@ -1014,6 +1054,9 @@
       <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
@@ -1028,6 +1071,9 @@
       <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
@@ -1041,6 +1087,9 @@
       </c>
       <c r="E7" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1143,9 +1192,10 @@
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="37.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>48</v>
       </c>
@@ -1155,12 +1205,12 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>38</v>
       </c>
@@ -1179,8 +1229,11 @@
       <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>40</v>
       </c>
@@ -1199,8 +1252,11 @@
       <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
@@ -1219,8 +1275,11 @@
       <c r="F4" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>49</v>
       </c>
@@ -1239,8 +1298,11 @@
       <c r="F5" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -1257,8 +1319,11 @@
       <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>2</v>
@@ -1275,32 +1340,35 @@
       <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1362,11 +1430,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4D25F-A186-43DA-B17F-8A5D453FA7CA}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="13" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68EE20E-2BF6-4C51-88FD-21FEB6050E4A}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1605,7 @@
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="48.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -1384,7 +1614,7 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
@@ -1456,15 +1686,9 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC10E262-32A5-45C8-913C-2D165953825C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEECA1FF-F2FA-4598-A42C-FFDB118C76A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,8 @@
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="Script" sheetId="2" r:id="rId2"/>
     <sheet name="Lock" sheetId="4" r:id="rId3"/>
-    <sheet name="SaveData" sheetId="7" r:id="rId4"/>
-    <sheet name="Talk" sheetId="5" r:id="rId5"/>
+    <sheet name="Talk" sheetId="5" r:id="rId4"/>
+    <sheet name="SaveData" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>말하는 캐릭터 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명 (주석)</t>
   </si>
   <si>
@@ -229,10 +225,6 @@
   </si>
   <si>
     <t>더미이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미다,,,안녕 내이름은 더미야</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,6 +265,145 @@
   </si>
   <si>
     <t>dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말하는 캐릭터 종류
+소녀: 0, 인형: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 말하는 스프라이트 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 스트링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 인덱스
+(몇 번째 대사 이후 나올 것인지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Talk 데이터 스키마 구조 설명
+기본적으로 대사 출력 후, (index는 0부터 시작)_
+index에 해당하는 선택지 있으면 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 넌 이름은 뭐니,,,
+그래, 난 더미야. 
+잘 부탁할게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy01,,,
+dummy02,,,
+dummy01,,,
+dummy02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,,,
+1,,,
+0,,,
+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,,,
+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,,,
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 선택지 결과에 
+따른 다음 대화 idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextTalkIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,,,
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adlet,,,
+심형주,,,
+그래 나도 잘 부탁해.,,,
+난 너가 싫어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 길이
+(대사 길이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인형과의 첫만남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy01,,,
+dummy02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정신을 차렸니?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>………,,,
+……?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,,,
+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -415,6 +546,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -703,7 +840,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -720,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -730,18 +867,18 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="18"/>
+      <c r="D1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="20"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -756,12 +893,12 @@
         <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -784,7 +921,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -802,12 +939,12 @@
         <v>14</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -822,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -949,7 +1086,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -964,7 +1101,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -974,16 +1111,18 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="20"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -995,12 +1134,12 @@
         <v>18</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1020,7 +1159,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1029,18 +1168,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1052,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1069,7 +1208,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -1181,7 +1320,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1336,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1207,15 +1346,17 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -1224,18 +1365,18 @@
         <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1258,7 +1399,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1267,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>28</v>
@@ -1276,12 +1417,12 @@
         <v>29</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1293,10 +1434,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1430,11 +1571,354 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68EE20E-2BF6-4C51-88FD-21FEB6050E4A}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="18" customWidth="1"/>
+    <col min="8" max="8" width="21" style="18" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="25" style="18" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
+        <v>10</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4D25F-A186-43DA-B17F-8A5D453FA7CA}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1446,7 +1930,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1459,10 +1943,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -1470,7 +1954,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -1481,7 +1965,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
@@ -1492,13 +1976,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1585,227 +2069,6 @@
       <c r="A32" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68EE20E-2BF6-4C51-88FD-21FEB6050E4A}">
-  <dimension ref="A1:F32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5">
-        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
-        <f>COUNTA(3:3) - 1</f>
-        <v>3</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="3"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="3"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="3"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="3"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="3"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="3"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="3"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEECA1FF-F2FA-4598-A42C-FFDB118C76A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAACCFF5-F202-4FA9-BF86-685D6CE3D5F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="Script" sheetId="2" r:id="rId2"/>
     <sheet name="Lock" sheetId="4" r:id="rId3"/>
     <sheet name="Talk" sheetId="5" r:id="rId4"/>
-    <sheet name="SaveData" sheetId="7" r:id="rId5"/>
+    <sheet name="AnimaAbility" sheetId="8" r:id="rId5"/>
+    <sheet name="SaveData" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="94">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,13 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#필독!!
-B1, C1 꼭 넣어주기! 안 넣어주면 안돌아감
-자료형에는 int, string, bool, int[], string[], bool[] 으로만 넣어주세요
- [] 자료형 사용시  ,,,  로 각 문단 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interactString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +272,6 @@
   </si>
   <si>
     <t>length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 말하는 스프라이트 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,11 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>총 길이
-(대사 길이)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인형과의 첫만남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,6 +389,50 @@
   <si>
     <t>0,,,
 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 길이
+(대사만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#필독!!
+자료형에는 int, string, bool, int[], string[], bool[] 으로만 넣어주세요
+ [] 자료형 사용시  ,,,  로 각 문단 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말하는 Sprite 이름
+Assets\Resources\Sprites에 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 업 시 
+필요 아니마 개수
+(1-&gt;2 부터 시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelUpCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,,,
+2,,,
+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -553,6 +582,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -840,7 +872,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -867,10 +899,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="20"/>
+      <c r="D1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="21"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -893,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -939,7 +971,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1086,7 +1118,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,10 +1143,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="20"/>
+      <c r="D1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="21"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1134,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1168,13 +1200,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1191,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1208,7 +1240,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
@@ -1329,7 +1361,7 @@
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="37.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
@@ -1346,10 +1378,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="20"/>
+      <c r="D1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
@@ -1371,7 +1403,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1408,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>28</v>
@@ -1417,7 +1449,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1434,10 +1466,10 @@
         <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1574,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68EE20E-2BF6-4C51-88FD-21FEB6050E4A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1591,10 +1623,11 @@
     <col min="9" max="9" width="20.375" style="18" customWidth="1"/>
     <col min="10" max="10" width="25" style="18" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="18" customWidth="1"/>
+    <col min="12" max="12" width="12" style="18" customWidth="1"/>
     <col min="13" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>47</v>
       </c>
@@ -1604,21 +1637,22 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>10</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="21"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
@@ -1629,31 +1663,34 @@
         <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
@@ -1687,8 +1724,11 @@
       <c r="K3" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>41</v>
       </c>
@@ -1699,31 +1739,34 @@
         <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="I4" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>43</v>
       </c>
@@ -1737,46 +1780,49 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -1785,56 +1831,59 @@
         <v>2</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="3"/>
     </row>
@@ -1914,6 +1963,251 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="15" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
+        <v>5</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4D25F-A186-43DA-B17F-8A5D453FA7CA}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -1982,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF49661-978E-4340-B399-91FC1AF49509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DED720-9C25-4A02-AF8C-ACC971373614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -265,15 +265,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interactType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interactIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -585,10 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>needType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>needType
 Item, AnimaAbility
 (추가 요청)</t>
@@ -612,10 +600,6 @@
   </si>
   <si>
     <t>interactionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needItemArray</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -632,6 +616,22 @@
 자료형에는 int, string, bool, int[], string[], bool[] 으로만 넣어주세요
 bool 자료형에서 false = 0, true = 1로 넣어도 됨
  [] 자료형 사용시  ,,,  로 각 문단 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idxList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needItemList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needTypeList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,10 +1141,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1184,13 +1184,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>41</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1418,10 +1418,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>42</v>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G1" s="22"/>
     </row>
@@ -1620,10 +1620,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>20</v>
@@ -1660,10 +1660,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>22</v>
@@ -1686,7 +1686,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1704,7 +1704,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1800,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1834,19 +1834,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I1" s="21"/>
       <c r="J1" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="19"/>
@@ -1865,10 +1865,10 @@
         <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1885,10 +1885,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1902,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>39</v>
@@ -1922,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2286,7 +2286,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2531,7 +2531,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DED720-9C25-4A02-AF8C-ACC971373614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E67C8B3-E59F-4522-BD4E-2418EEB95587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,24 +542,6 @@
   <si>
     <t>초기 상태
 (FALSE: 비활성화 상태)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,,,
-5,,,
-6,,,
-7,,,
-8,,,
-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,,,
-0,,,
-0,,,
-0,,,
-0,,,
-0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1184,13 +1166,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1418,10 +1400,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1432,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>62</v>
@@ -1574,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1605,7 +1587,7 @@
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" s="22"/>
     </row>
@@ -1620,10 +1602,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>20</v>
@@ -1660,10 +1642,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>22</v>
@@ -1686,7 +1668,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1704,7 +1686,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1800,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1834,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21" t="s">
@@ -1865,7 +1847,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>66</v>
@@ -1902,16 +1884,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>32</v>
       </c>
@@ -1921,11 +1903,11 @@
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>68</v>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E67C8B3-E59F-4522-BD4E-2418EEB95587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278F2DA-05F0-439D-A043-38960B8ADF87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
     <sheet name="4.Choose" sheetId="5" r:id="rId2"/>
-    <sheet name="10.Lock" sheetId="4" r:id="rId3"/>
-    <sheet name="Interaction" sheetId="10" r:id="rId4"/>
-    <sheet name="Item" sheetId="1" r:id="rId5"/>
-    <sheet name="AnimaAbility" sheetId="8" r:id="rId6"/>
-    <sheet name="SaveData" sheetId="7" r:id="rId7"/>
+    <sheet name="8.ItemControl" sheetId="11" r:id="rId3"/>
+    <sheet name="9.StressControl" sheetId="12" r:id="rId4"/>
+    <sheet name="10.Lock" sheetId="4" r:id="rId5"/>
+    <sheet name="Interaction" sheetId="10" r:id="rId6"/>
+    <sheet name="Item" sheetId="1" r:id="rId7"/>
+    <sheet name="AnimaAbility" sheetId="8" r:id="rId8"/>
+    <sheet name="SaveData" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="96">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,15 +126,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 더미임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금 찌그러진 문이다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,66 +318,6 @@
       </rPr>
       <t>: Unity 상에서 Component 설정 필요
 Bold체: Unity 상에서 수치 설정 필요</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. 카메라 워크 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CameraWalk</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-8. 아이템 획득, 삭제 - Item
-9. 스트레스 수치 조정 - Stress
-10. 잠김 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lock</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-11. 이벤트 - 내부 코드로 대응</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -559,12 +493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>needType
-Item, AnimaAbility
-(추가 요청)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scriptList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,6 +542,198 @@
   </si>
   <si>
     <t>needTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. 카메라 워크 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CameraWalk</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8. 아이템 획득, 삭제 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Item</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9. 스트레스 수치 조정 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stress</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10. 잠김 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lock</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11. 이벤트 - 내부 코드로 대응</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add / Delete 할 아이템 idx들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemIdxList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 개수 List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더할거면 true
+뺄거면 false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAddList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemNumList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,,,
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어져 있는 더미 뭉치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더할 스트레스 수치
+(음수 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stressAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,,,
+3,,,
+4,,,
+8,,,
+9,,,
+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,,,
+0,,,
+0,,,
+0,,,
+0,,,
+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE,,,
+TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#필독!!
+자료형에는 int, string, bool, int[], string[], bool[] 으로만 넣어주세요
+ [] 자료형 사용시  ,,,(줄바꿈) 으로 각 문단 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needType
+Item: 0, AnimaAbility: 1
+(추가 요청)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -783,6 +903,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1076,7 +1199,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1091,7 +1214,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1101,17 +1224,17 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21"/>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -1123,15 +1246,15 @@
         <v>16</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -1154,7 +1277,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -1163,21 +1286,21 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1189,13 +1312,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1209,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1321,6 +1444,251 @@
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="21" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
+        <v>4</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE0F44A-9C18-4C33-A0A2-0F0DFC6F241E}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
@@ -1334,47 +1702,50 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="5">
+        <v>33</v>
+      </c>
+      <c r="B1" s="21">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="21">
         <f>COUNTA(3:3) - 1</f>
-        <v>4</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="22"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -1383,15 +1754,18 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -1400,51 +1774,57 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>88</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
-      <c r="E6" s="5"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5"/>
+      <c r="D7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -1453,22 +1833,22 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -1552,12 +1932,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B63AF7-E119-4687-8DD8-29B29EE6460A}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="21" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="21">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="21">
+        <f>COUNTA(3:3) - 1</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3"/>
+      <c r="D7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1572,7 +2185,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1582,30 +2195,30 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="22"/>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>20</v>
@@ -1613,7 +2226,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -1622,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>21</v>
@@ -1633,7 +2246,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -1642,10 +2255,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>22</v>
@@ -1653,7 +2266,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1661,14 +2274,14 @@
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
+      <c r="D5" s="6">
+        <v>0</v>
       </c>
       <c r="E5" s="6">
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1677,16 +2290,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
       </c>
       <c r="E6" s="6">
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1778,12 +2391,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1805,7 +2418,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1815,47 +2428,47 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="22"/>
+      <c r="D1" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="23"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -1867,15 +2480,15 @@
         <v>21</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -1884,18 +2497,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1903,13 +2516,13 @@
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1930,7 +2543,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2053,7 +2666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -2074,7 +2687,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2084,17 +2697,17 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21"/>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -2108,7 +2721,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -2126,7 +2739,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -2144,7 +2757,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2156,7 +2769,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2263,7 +2876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -2284,7 +2897,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2294,35 +2907,35 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21"/>
+      <c r="D1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="22"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -2342,7 +2955,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -2351,18 +2964,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2374,7 +2987,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2508,7 +3121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4D25F-A186-43DA-B17F-8A5D453FA7CA}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -2525,7 +3138,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2538,10 +3151,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>4</v>
@@ -2549,7 +3162,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>2</v>
@@ -2560,7 +3173,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -2571,13 +3184,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3278F2DA-05F0-439D-A043-38960B8ADF87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9A709-BEBF-4137-BEE1-51F326EE4E92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -28,13 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="104">
   <si>
     <t>더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,11 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스크립트 배열 
-(  , 로 구별. 줄바꿈 등도 다 넣기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +163,6 @@
   </si>
   <si>
     <t>더미이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interactString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,16 +218,6 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이불이 흐트러져 있는 침대다,,,
-….치워야 하는데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미임,,,
-...더미라고요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -736,6 +713,76 @@
 (추가 요청)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>오브젝트 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라워크 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트레스 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠금 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,,,
+3,,,
+4,,,
+5,,,
+6,,,
+7,,,
+8,,,
+9,,,
+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,,,
+0,,,
+0,,,
+0,,,
+0,,,
+0,,,
+0,,,
+0,,,
+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 스크립트다. 테스트를 위해 스크립트를 좀 길게 작성함,,,
+가나다라마바사
+아자차카타파하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -845,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -903,6 +950,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1198,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1267,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1222,85 +1275,76 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>6</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1309,16 +1353,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1326,19 +1367,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1427,6 +1465,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1457,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1467,10 +1506,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="22"/>
+      <c r="D1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="24"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -1480,70 +1519,70 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1555,7 +1594,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1702,7 +1741,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1712,10 +1751,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="22"/>
+      <c r="D1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="24"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -1725,82 +1764,82 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1812,7 +1851,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -1936,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B63AF7-E119-4687-8DD8-29B29EE6460A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1959,7 +1998,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1969,10 +2008,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="22"/>
+      <c r="D1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="24"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -1982,49 +2021,49 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2045,7 +2084,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -2185,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2195,78 +2234,78 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="23"/>
+      <c r="D1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2281,7 +2320,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2290,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -2299,7 +2338,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2396,7 +2435,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2418,97 +2457,97 @@
   <sheetData>
     <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="25"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2517,21 +2556,32 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="23" t="b">
+        <v>1</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -2541,49 +2591,165 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="3"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
@@ -2687,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2697,67 +2863,67 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="22"/>
+      <c r="D1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2766,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2778,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -2897,7 +3063,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2907,75 +3073,75 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="22"/>
+      <c r="D1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="24"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2987,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -3138,7 +3304,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3151,46 +3317,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA9A709-BEBF-4137-BEE1-51F326EE4E92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C20715-C818-4C3D-A2AD-F38B7BF813AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="111">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
   </si>
   <si>
     <t>소녀의방_침대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침대다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -783,6 +779,56 @@
 아자차카타파하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0,,,
+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대다,,,
+… 이불을 개긴 귀찮다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goNextImmediately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,,,
+TRUE,,,
+FALSE,,,
+TRUE,,,
+TRUE,,,
+FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,,,
+TRUE,,,
+FALSE,,,
+TRUE,,,
+TRUE,,,
+FALSE,,,
+TRUE,,,
+TRUE,,,
+FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,,,
+FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,,,
+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE,,,
+TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -892,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -950,6 +996,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1251,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1267,7 +1316,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1277,17 +1326,17 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1296,15 +1345,15 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1324,7 +1373,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -1333,18 +1382,18 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1353,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1370,13 +1419,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1496,7 +1545,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1506,10 +1555,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="25"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -1519,24 +1568,24 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1548,12 +1597,12 @@
         <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -1562,27 +1611,27 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1594,7 +1643,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1741,7 +1790,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="21">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1751,10 +1800,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="25"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -1764,27 +1813,27 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1793,18 +1842,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -1813,33 +1862,33 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1851,7 +1900,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -1998,7 +2047,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="21">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2008,10 +2057,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="25"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2021,21 +2070,21 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2049,7 +2098,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -2058,12 +2107,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2084,7 +2133,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -2224,7 +2273,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2234,38 +2283,38 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="25"/>
+      <c r="D1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2274,10 +2323,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>15</v>
@@ -2285,7 +2334,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -2294,18 +2343,18 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2320,7 +2369,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2329,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -2338,7 +2387,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2434,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2457,7 +2506,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2465,49 +2514,52 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>5</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="26"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2516,18 +2568,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -2536,18 +2591,21 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>34</v>
+        <v>105</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2556,12 +2614,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="5" t="b">
+      <c r="F5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2571,18 +2632,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="F6" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="23" t="b">
+        <v>1</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2595,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -2603,35 +2666,41 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -2639,7 +2708,10 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="22" t="b">
+      <c r="F9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2649,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -2657,7 +2729,10 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="22" t="b">
+      <c r="F10" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2667,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -2675,7 +2750,10 @@
       <c r="E11" s="17">
         <v>0</v>
       </c>
-      <c r="F11" s="22" t="b">
+      <c r="F11" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2685,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -2693,7 +2771,10 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="22" t="b">
+      <c r="F12" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2703,7 +2784,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -2711,7 +2792,10 @@
       <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="22" t="b">
+      <c r="F13" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2721,7 +2805,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -2729,7 +2813,10 @@
       <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="22" t="b">
+      <c r="F14" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2739,7 +2826,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -2747,7 +2834,10 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="22" t="b">
+      <c r="F15" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2853,7 +2943,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2863,17 +2953,17 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -2887,7 +2977,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2905,7 +2995,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -2923,7 +3013,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2935,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -3063,7 +3153,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3073,35 +3163,35 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="25"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3113,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>1</v>
@@ -3121,7 +3211,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -3130,18 +3220,18 @@
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3153,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -3304,7 +3394,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3317,10 +3407,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -3328,7 +3418,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3339,7 +3429,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -3350,13 +3440,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C20715-C818-4C3D-A2AD-F38B7BF813AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71B9EE-299A-440A-BBA6-AD091D72A1C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Item" sheetId="1" r:id="rId7"/>
     <sheet name="AnimaAbility" sheetId="8" r:id="rId8"/>
     <sheet name="SaveData" sheetId="7" r:id="rId9"/>
+    <sheet name="DollTalk" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +44,6 @@
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까이 갔을 때 표시되는 string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -829,6 +826,27 @@
 TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>나올 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인형과의 더미 대화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGirlTalking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True,,,
+True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀가 말하고 있는 지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -938,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -996,6 +1014,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1301,7 +1322,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1316,7 +1337,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1326,34 +1347,34 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1362,38 +1383,38 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1402,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1416,22 +1437,260 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="F7" s="5"/>
       <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="25">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="25">
+        <f>COUNTA(3:3) - 1</f>
+        <v>6</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
@@ -1545,7 +1804,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1555,10 +1814,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="26"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -1568,24 +1827,24 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1594,44 +1853,44 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1643,7 +1902,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1790,7 +2049,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="21">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1800,10 +2059,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="26"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -1813,27 +2072,27 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1842,53 +2101,53 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1900,7 +2159,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -2047,7 +2306,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="21">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2057,10 +2316,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="26"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2070,21 +2329,21 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2098,21 +2357,21 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2133,7 +2392,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="21"/>
     </row>
@@ -2273,7 +2532,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2283,38 +2542,38 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="26"/>
+      <c r="D1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2323,38 +2582,38 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2369,7 +2628,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2378,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -2387,7 +2646,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2483,7 +2742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2506,7 +2765,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2516,50 +2775,50 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25" t="s">
+      <c r="D1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="27"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2568,44 +2827,44 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2614,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="F5" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -2632,16 +2891,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>101</v>
-      </c>
       <c r="F6" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="23" t="b">
         <v>1</v>
@@ -2658,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -2679,16 +2938,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="G8" s="22" t="b">
         <v>1</v>
@@ -2700,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -2709,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="22" t="b">
         <v>1</v>
@@ -2721,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -2742,7 +3001,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -2763,7 +3022,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -2784,7 +3043,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -2805,7 +3064,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -2826,7 +3085,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -2943,7 +3202,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2953,31 +3212,31 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2995,25 +3254,25 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3022,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -3034,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -3153,7 +3412,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3163,35 +3422,35 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="26"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3203,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>1</v>
@@ -3211,27 +3470,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3243,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -3394,7 +3653,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3407,10 +3666,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -3418,7 +3677,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3429,24 +3688,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71B9EE-299A-440A-BBA6-AD091D72A1C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40740F-5F37-420F-A709-4EDAEF4AEF55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23250" windowHeight="12450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="120">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -847,6 +847,27 @@
     <t>소녀가 말하고 있는 지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>더미데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸 보고 있다면 이게 왜 작동하는지 의문을 가지십쇼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미2데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 작동합니다 예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>False,,,
+False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -956,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1014,6 +1035,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1325,17 +1349,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
     <col min="6" max="7" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -1347,12 +1371,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1372,7 +1396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1392,7 +1416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1412,7 +1436,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1432,7 +1456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1449,84 +1473,84 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="F7" s="5"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1544,38 +1568,38 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
     <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="25" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="25">
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1622,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1644,7 +1668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1691,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1687,84 +1711,116 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1785,24 +1841,24 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -1814,10 +1870,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -1825,7 +1881,7 @@
       <c r="J1" s="5"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1842,7 +1898,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -1859,7 +1915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +1932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -1893,12 +1949,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
@@ -1906,109 +1962,109 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2030,24 +2086,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="21" style="21" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2059,10 +2115,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2070,7 +2126,7 @@
       <c r="J1" s="21"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2090,7 +2146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2110,7 +2166,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2130,7 +2186,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2150,12 +2206,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
@@ -2163,109 +2219,109 @@
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2287,24 +2343,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="21" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2316,10 +2372,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2327,7 +2383,7 @@
       <c r="J1" s="21"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2341,7 +2397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2355,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2369,7 +2425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2383,12 +2439,12 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
@@ -2396,109 +2452,109 @@
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2520,17 +2576,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2542,16 +2598,16 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2571,7 +2627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
@@ -2591,7 +2647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -2611,7 +2667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
@@ -2631,7 +2687,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -2649,82 +2705,82 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -2746,24 +2802,24 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2775,25 +2831,25 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="27"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2816,7 +2872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2839,7 +2895,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2862,7 +2918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2885,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="153" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -2911,7 +2967,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
@@ -2932,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
@@ -2953,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>4</v>
@@ -2974,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>5</v>
@@ -2995,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>6</v>
@@ -3016,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>7</v>
@@ -3037,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
@@ -3058,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3">
         <v>9</v>
@@ -3079,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>10</v>
@@ -3100,71 +3156,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3189,7 +3245,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
@@ -3200,7 +3256,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3212,12 +3268,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -3234,7 +3290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -3252,7 +3308,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -3270,7 +3326,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -3288,7 +3344,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -3303,82 +3359,82 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -3399,18 +3455,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="25.08203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" customWidth="1"/>
+    <col min="7" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3422,13 +3479,13 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -3448,7 +3505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -3468,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -3488,7 +3545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -3508,121 +3565,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3644,14 +3701,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3664,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -3675,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
@@ -3686,7 +3743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -3697,7 +3754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
@@ -3708,87 +3765,87 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40740F-5F37-420F-A709-4EDAEF4AEF55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33244C35-6ADE-44CB-81CE-56F3741A3916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23250" windowHeight="12450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,20 +852,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이걸 보고 있다면 이게 왜 작동하는지 의문을 가지십쇼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더미2데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘 작동합니다 예</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>False,,,
 False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸 보고 있다면 이게 왜 작동하는지 의문을 가지십쇼,,,
+한 줄 밖에 없어서 추가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 작동합니다 예,,,
+한줄이 없어서 추가함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1035,9 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1349,17 +1348,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
     <col min="6" max="7" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -1371,12 +1370,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1473,84 +1472,84 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="F7" s="5"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1568,38 +1567,39 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
     <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="25">
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1691,35 +1691,35 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="C6" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>44</v>
@@ -1728,99 +1728,79 @@
         <v>55</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1841,24 +1821,24 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -1870,10 +1850,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -1881,7 +1861,7 @@
       <c r="J1" s="5"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1898,7 +1878,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -1915,7 +1895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -1932,7 +1912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -1949,12 +1929,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
@@ -1962,109 +1942,109 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2086,24 +2066,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="21" style="21" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18.08203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2115,10 +2095,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2126,7 +2106,7 @@
       <c r="J1" s="21"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2146,7 +2126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2166,7 +2146,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2186,7 +2166,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2206,12 +2186,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
@@ -2219,109 +2199,109 @@
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2343,24 +2323,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="21" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2372,10 +2352,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2383,7 +2363,7 @@
       <c r="J1" s="21"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +2377,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2411,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2425,7 +2405,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2439,12 +2419,12 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
@@ -2452,109 +2432,109 @@
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2576,17 +2556,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2598,16 +2578,16 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2627,7 +2607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
@@ -2647,7 +2627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -2667,7 +2647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
@@ -2687,7 +2667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -2705,82 +2685,82 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -2802,24 +2782,24 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2831,25 +2811,25 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2872,7 +2852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2895,7 +2875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2918,7 +2898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2941,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="153" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -2967,7 +2947,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
@@ -2988,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
@@ -3009,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>4</v>
@@ -3030,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>5</v>
@@ -3051,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>6</v>
@@ -3072,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>7</v>
@@ -3093,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
@@ -3114,7 +3094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3">
         <v>9</v>
@@ -3135,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>10</v>
@@ -3156,71 +3136,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3245,7 +3225,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
@@ -3256,7 +3236,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3268,12 +3248,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -3290,7 +3270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -3308,7 +3288,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -3326,7 +3306,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -3344,7 +3324,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -3359,82 +3339,82 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -3455,19 +3435,19 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.08203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="12" width="8.6640625" customWidth="1"/>
+    <col min="7" max="12" width="8.625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3479,13 +3459,13 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -3505,7 +3485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -3525,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -3545,7 +3525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -3565,121 +3545,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3701,14 +3681,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3721,7 +3701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -3732,7 +3712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
@@ -3743,7 +3723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -3754,7 +3734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
@@ -3765,87 +3745,87 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33244C35-6ADE-44CB-81CE-56F3741A3916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FDDB1E-3651-446A-BB20-9CD05902800E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23250" windowHeight="12450" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="10.Lock" sheetId="4" r:id="rId5"/>
     <sheet name="Interaction" sheetId="10" r:id="rId6"/>
     <sheet name="Item" sheetId="1" r:id="rId7"/>
-    <sheet name="AnimaAbility" sheetId="8" r:id="rId8"/>
+    <sheet name="StellaAbility" sheetId="8" r:id="rId8"/>
     <sheet name="SaveData" sheetId="7" r:id="rId9"/>
     <sheet name="DollTalk" sheetId="14" r:id="rId10"/>
+    <sheet name="Anima" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,10 +194,6 @@
     <t>레벨 업 시 
 필요 아니마 개수
 (1-&gt;2 부터 시작)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelUpCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -835,10 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isGirlTalking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>True,,,
 True</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -868,6 +861,127 @@
   <si>
     <t>잘 작동합니다 예,,,
 한줄이 없어서 추가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유한 스텔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유한 스텔라 양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마 일련번호
+(타입, 프로퍼티, 고유번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마 도감 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니마 도감 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 아니마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨별 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descriptionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelUpCountList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stellaAmountList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animaIndexList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stellaIdxList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGirlTalkingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸 보고있다면 당신은 어쩌고저쩌고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,,,
+6,,,
+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 데이터1,,,
+더미 데이터2,,,
+더미 데이터3,,,
+더미 데이터4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인형이 바라보는 곳이 밝게 빛납니다.
+인형이 바라보는 곳과 주위가 밝게 빛납니다.
+인형이 바라보는 곳으로 더 멀리까지 빛을 방출합니다.
+인형이 주위로 더 멀리까지 빛을 방출합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,,,
+1,,,
+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,,,
+1,,,
+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소에는 형체를 가지지 않고 있으나, 빛을 내는 물체가 있으면 그 곳에 빙의하여 명멸을 일으킴.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10105_lights</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1037,6 +1151,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1348,17 +1465,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
     <col min="6" max="7" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -1370,12 +1487,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1386,16 +1503,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1415,7 +1532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1426,16 +1543,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1446,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1463,93 +1580,93 @@
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="F7" s="5"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1566,23 +1683,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
     <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="25" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -1594,12 +1711,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1610,19 +1727,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1642,10 +1759,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1656,19 +1773,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1676,131 +1793,383 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>115</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D44B4B-E1F2-4995-A8CD-CF532127F36C}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="18" style="26" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.58203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19.58203125" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="26">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="26">
+        <f>COUNTA(3:3) - 1</f>
+        <v>7</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="74.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="3"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1821,24 +2190,24 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -1850,10 +2219,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -1861,7 +2230,7 @@
       <c r="J1" s="5"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1875,10 +2244,10 @@
         <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -1895,7 +2264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -1906,13 +2275,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -1920,131 +2289,131 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2066,24 +2435,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="21" style="21" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2095,10 +2464,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="26"/>
+      <c r="D1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="27"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2106,7 +2475,7 @@
       <c r="J1" s="21"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2117,16 +2486,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2143,10 +2512,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2157,16 +2526,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2174,134 +2543,134 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2323,24 +2692,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="21" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2352,10 +2721,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2363,7 +2732,7 @@
       <c r="J1" s="21"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2374,10 +2743,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2391,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2402,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2419,122 +2788,122 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2556,17 +2925,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2578,16 +2947,16 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2598,16 +2967,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
@@ -2627,7 +2996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -2638,16 +3007,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
@@ -2664,10 +3033,10 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -2682,85 +3051,85 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -2779,27 +3148,27 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2811,25 +3180,25 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="D1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="28"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2840,19 +3209,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2866,16 +3235,16 @@
         <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2886,19 +3255,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2909,34 +3278,34 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="F5" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="153" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="F6" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="23" t="b">
         <v>1</v>
@@ -2947,13 +3316,13 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -2968,34 +3337,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="G8" s="22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -3004,19 +3373,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -3031,13 +3400,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -3052,13 +3421,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -3073,13 +3442,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -3094,13 +3463,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3">
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -3115,13 +3484,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -3136,71 +3505,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3225,7 +3594,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.75" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
@@ -3236,7 +3605,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3248,12 +3617,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -3270,7 +3639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -3288,7 +3657,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -3306,7 +3675,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -3324,7 +3693,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -3339,82 +3708,82 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -3432,40 +3801,41 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="25.08203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="12" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="46.83203125" customWidth="1"/>
+    <col min="8" max="12" width="8.58203125" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>5</v>
-      </c>
-      <c r="D1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -3482,10 +3852,13 @@
         <v>39</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -3504,8 +3877,11 @@
       <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -3519,13 +3895,16 @@
         <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G4" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -3539,127 +3918,144 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="107" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="26">
+        <v>4</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3681,14 +4077,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3701,7 +4097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -3712,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
@@ -3723,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -3734,7 +4130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
@@ -3745,87 +4141,87 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="14"/>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FDDB1E-3651-446A-BB20-9CD05902800E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB13AA7-FAE7-45AD-B3B6-EBF42D5B5826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23250" windowHeight="12450" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -14,11 +14,11 @@
     <sheet name="9.StressControl" sheetId="12" r:id="rId4"/>
     <sheet name="10.Lock" sheetId="4" r:id="rId5"/>
     <sheet name="Interaction" sheetId="10" r:id="rId6"/>
-    <sheet name="Item" sheetId="1" r:id="rId7"/>
-    <sheet name="StellaAbility" sheetId="8" r:id="rId8"/>
-    <sheet name="SaveData" sheetId="7" r:id="rId9"/>
-    <sheet name="DollTalk" sheetId="14" r:id="rId10"/>
-    <sheet name="Anima" sheetId="17" r:id="rId11"/>
+    <sheet name="DollTalk" sheetId="14" r:id="rId7"/>
+    <sheet name="Anima" sheetId="17" r:id="rId8"/>
+    <sheet name="StellaAbility" sheetId="8" r:id="rId9"/>
+    <sheet name="Item" sheetId="1" r:id="rId10"/>
+    <sheet name="SaveData" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1465,17 +1465,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
     <col min="6" max="7" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1589,84 +1589,84 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="F7" s="5"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1680,43 +1680,42 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
-    <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="18.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="35" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25">
+      <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>3</v>
-      </c>
-      <c r="C1" s="25">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -1727,19 +1726,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -1750,19 +1743,14 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -1773,19 +1761,14 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1793,131 +1776,107 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1931,72 +1890,47 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D44B4B-E1F2-4995-A8CD-CF532127F36C}">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4D25F-A186-43DA-B17F-8A5D453FA7CA}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="26" customWidth="1"/>
-    <col min="3" max="3" width="18" style="26" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="26" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.58203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="19.58203125" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="13" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
         <v>2</v>
       </c>
-      <c r="C1" s="26">
-        <f>COUNTA(3:3) - 1</f>
-        <v>7</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" ht="74.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
-        <v>21</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2004,25 +1938,10 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>25</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2030,152 +1949,102 @@
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>27</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B32" s="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2190,24 +2059,24 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2230,7 +2099,7 @@
       <c r="J1" s="5"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2247,7 +2116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2264,7 +2133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2281,7 +2150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2298,12 +2167,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
@@ -2311,109 +2180,109 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2435,24 +2304,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
     <col min="3" max="3" width="21" style="21" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18.08203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2475,7 +2344,7 @@
       <c r="J1" s="21"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2495,7 +2364,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2515,7 +2384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2535,7 +2404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2555,12 +2424,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
@@ -2568,109 +2437,109 @@
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2692,24 +2561,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="21" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2732,7 +2601,7 @@
       <c r="J1" s="21"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +2615,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -2760,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -2774,7 +2643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -2788,12 +2657,12 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="21" t="s">
@@ -2801,109 +2670,109 @@
       </c>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2925,17 +2794,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -2956,7 +2825,7 @@
       </c>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -2976,7 +2845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
@@ -2996,7 +2865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -3016,7 +2885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
@@ -3036,7 +2905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -3054,82 +2923,82 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -3151,24 +3020,24 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.08203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3198,7 +3067,7 @@
       <c r="K1" s="28"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -3221,7 +3090,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -3244,7 +3113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
@@ -3267,7 +3136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
@@ -3290,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="153" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -3316,7 +3185,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
@@ -3337,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
@@ -3358,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>4</v>
@@ -3379,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>5</v>
@@ -3400,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>6</v>
@@ -3421,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>7</v>
@@ -3442,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
@@ -3463,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3">
         <v>9</v>
@@ -3484,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>10</v>
@@ -3505,71 +3374,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3587,42 +3456,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
-      </c>
-      <c r="C1" s="5">
+        <v>3</v>
+      </c>
+      <c r="C1" s="25">
         <f>COUNTA(3:3) - 1</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -3633,13 +3503,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>23</v>
       </c>
@@ -3650,14 +3526,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
@@ -3668,14 +3549,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
@@ -3683,107 +3569,131 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C6" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -3797,70 +3707,72 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D44B4B-E1F2-4995-A8CD-CF532127F36C}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.08203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.83203125" customWidth="1"/>
-    <col min="8" max="12" width="8.58203125" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="18" style="26" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="26">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>2</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="26">
         <f>COUNTA(3:3) - 1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="27"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>20</v>
+    </row>
+    <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
-        <v>22</v>
+        <v>121</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3869,21 +3781,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3892,171 +3807,145 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="68" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>123</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="107" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="26">
-        <v>4</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="26">
-        <v>1</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="14"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="14"/>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="14"/>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="14"/>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="14"/>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -4070,34 +3959,45 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4D25F-A186-43DA-B17F-8A5D453FA7CA}">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15" style="17" customWidth="1"/>
+    <col min="7" max="7" width="46.875" customWidth="1"/>
+    <col min="8" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -4107,9 +4007,21 @@
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -4118,9 +4030,21 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -4129,102 +4053,178 @@
       <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>30</v>
+      <c r="D4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="26">
+        <v>4</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="3"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="3"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="3"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
+      <c r="B32" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB13AA7-FAE7-45AD-B3B6-EBF42D5B5826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F5573-AF3D-4D38-821A-13745A96A8F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="148">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -984,6 +984,20 @@
     <t>10105_lights</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1,,,
+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,,,
+11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 더미 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1093,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1151,6 +1165,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1487,10 +1504,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -1710,10 +1727,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2056,7 +2073,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2088,10 +2105,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -2164,7 +2181,7 @@
         <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2333,10 +2350,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2590,10 +2607,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2816,14 +2833,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -3016,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3043,28 +3060,28 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -3374,9 +3391,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>11</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
@@ -3487,10 +3521,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3739,10 +3773,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3962,7 +3996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3991,10 +4025,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7F5573-AF3D-4D38-821A-13745A96A8F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B456CAD-5275-4488-AE92-0058969DFB8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -208,16 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dummy01,,,
-dummy01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprite01,,,
-sprite01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -998,6 +988,16 @@
     <t>대사 더미 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>none,,,
+none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_thinking,,,
+girl_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1107,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1165,6 +1165,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1478,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1504,10 +1507,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -1520,13 +1523,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1560,13 +1563,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -1580,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -1597,13 +1600,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1727,10 +1730,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2105,10 +2108,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -2130,7 +2133,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2161,10 +2164,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2175,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2350,10 +2353,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="28"/>
+      <c r="D1" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="29"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2372,13 +2375,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2398,7 +2401,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2412,13 +2415,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2429,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2607,10 +2610,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="21"/>
@@ -2629,7 +2632,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2657,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2833,14 +2836,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -2853,10 +2856,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>16</v>
@@ -2893,10 +2896,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>18</v>
@@ -2919,7 +2922,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2937,7 +2940,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3033,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3066,22 +3069,22 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="29"/>
+      <c r="D1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="30"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -3095,16 +3098,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3121,13 +3124,13 @@
         <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3141,13 +3144,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>32</v>
@@ -3164,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -3182,16 +3185,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>99</v>
-      </c>
       <c r="F6" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="23" t="b">
         <v>1</v>
@@ -3208,7 +3211,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -3229,16 +3232,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="22" t="b">
         <v>1</v>
@@ -3250,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -3259,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="22" t="b">
         <v>1</v>
@@ -3271,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -3292,7 +3295,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -3313,7 +3316,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -3334,7 +3337,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -3355,7 +3358,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -3376,7 +3379,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -3397,16 +3400,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="27" t="b">
         <v>1</v>
@@ -3494,7 +3497,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3521,10 +3524,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3537,16 +3540,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3569,7 +3572,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3583,16 +3586,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -3603,19 +3606,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3623,19 +3626,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>43</v>
+        <v>114</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3643,19 +3646,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>43</v>
+        <v>115</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3773,10 +3776,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3786,22 +3789,22 @@
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3841,19 +3844,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
@@ -3864,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -3876,10 +3879,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3887,22 +3890,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4025,10 +4028,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -4051,7 +4054,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -4091,13 +4094,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -4120,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4129,19 +4132,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="26">
         <v>4</v>
       </c>
       <c r="E6" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>137</v>
-      </c>
-      <c r="F6" s="26">
-        <v>1</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B456CAD-5275-4488-AE92-0058969DFB8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACADE7D-D089-4AF4-8A43-8AA922D76F17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="156">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>ItemInfoWindow에 뜰 string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -996,6 +992,44 @@
   <si>
     <t>girl_thinking,,,
 girl_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potionSample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라색 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라색 포션이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용하고
+비활성화 될 지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableAfterInteract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미 포션 출력되면 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음으로 바로 넘어갈지
+쓸지는 모르겠음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1479,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1492,12 +1526,13 @@
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1508,33 +1543,33 @@
         <v>5</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1543,18 +1578,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1563,18 +1598,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1583,62 +1618,61 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -1703,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1720,27 +1754,27 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1754,7 +1788,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1772,7 +1806,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1784,13 +1818,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1802,7 +1836,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1814,15 +1848,26 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
@@ -1926,7 +1971,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1939,10 +1984,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1950,7 +1995,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1961,7 +2006,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1972,13 +2017,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2076,7 +2121,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2086,7 +2131,7 @@
     <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
     <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
@@ -2098,7 +2143,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2109,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="19"/>
@@ -2121,24 +2166,24 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2147,15 +2192,15 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2164,27 +2209,27 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2196,7 +2241,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2321,18 +2366,18 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21" style="21" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
     <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
@@ -2343,50 +2388,50 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="21">
+        <v>28</v>
+      </c>
+      <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="21">
+        <v>2</v>
+      </c>
+      <c r="C1" s="20">
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2395,18 +2440,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2415,57 +2460,70 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>83</v>
+      <c r="D5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -2474,22 +2532,22 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -2578,15 +2636,15 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
@@ -2600,44 +2658,47 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="21">
+        <v>28</v>
+      </c>
+      <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>1</v>
       </c>
-      <c r="C1" s="21">
+      <c r="C1" s="20">
         <f>COUNTA(3:3) - 1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2648,10 +2709,13 @@
       <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="E3" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2660,12 +2724,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2673,32 +2740,35 @@
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>-10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
-      <c r="D7" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -2707,22 +2777,22 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -2811,7 +2881,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2822,11 +2892,12 @@
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2837,37 +2908,37 @@
         <v>5</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2876,18 +2947,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2896,18 +2967,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2922,7 +2993,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2931,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -2940,7 +3011,7 @@
         <v>-1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3036,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3059,7 +3130,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3067,52 +3138,55 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I1" s="29"/>
       <c r="J1" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="30"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3121,21 +3195,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>45</v>
+      <c r="H3" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3144,21 +3221,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3167,15 +3247,18 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>102</v>
+      <c r="F5" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="G5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3185,21 +3268,23 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="F6" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="b">
+        <v>1</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -3211,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -3219,10 +3304,13 @@
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="22" t="b">
+      <c r="F7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3232,18 +3320,21 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="22" t="b">
+      <c r="G8" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3253,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -3261,10 +3352,13 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="22" t="b">
+      <c r="F9" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3274,7 +3368,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -3282,10 +3376,13 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22" t="b">
+      <c r="F10" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3295,7 +3392,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -3303,10 +3400,13 @@
       <c r="E11" s="17">
         <v>0</v>
       </c>
-      <c r="F11" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22" t="b">
+      <c r="F11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3316,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -3324,10 +3424,13 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22" t="b">
+      <c r="F12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3337,18 +3440,21 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
       </c>
       <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3358,7 +3464,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -3366,10 +3472,13 @@
       <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22" t="b">
+      <c r="F14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3379,7 +3488,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -3387,10 +3496,13 @@
       <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22" t="b">
+      <c r="F15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3399,19 +3511,22 @@
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="27" t="b">
+      <c r="C16" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3503,10 +3618,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
-    <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18" style="24" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="24" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
     <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9" style="17"/>
@@ -3514,47 +3629,47 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="25">
+        <v>28</v>
+      </c>
+      <c r="B1" s="24">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="24">
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3563,21 +3678,21 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3586,79 +3701,79 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>109</v>
+      <c r="C6" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3754,10 +3869,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="26" customWidth="1"/>
-    <col min="3" max="3" width="18" style="26" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="26" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
     <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
     <col min="8" max="8" width="19.625" style="17" customWidth="1"/>
@@ -3766,50 +3881,50 @@
   <sheetData>
     <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="26">
+        <v>28</v>
+      </c>
+      <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>2</v>
       </c>
-      <c r="C1" s="26">
+      <c r="C1" s="25">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3818,13 +3933,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>2</v>
@@ -3835,7 +3950,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3844,33 +3959,33 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -3879,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3890,11 +4005,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -3902,16 +4017,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
@@ -4018,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -4029,37 +4144,37 @@
         <v>6</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -4071,18 +4186,18 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -4091,21 +4206,21 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4117,13 +4232,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>136</v>
+      <c r="G5" s="25" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4132,19 +4247,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="26">
+        <v>124</v>
+      </c>
+      <c r="D6" s="25">
         <v>4</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="26">
-        <v>1</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>137</v>
+      <c r="E6" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACADE7D-D089-4AF4-8A43-8AA922D76F17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB51481-0020-4CA3-ACCC-0C64962A42DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="159">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>noItemString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무거운 물체가 문을 가로막고 있어서 열리지 않아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scriptList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1032,6 +1024,119 @@
     <t>ItemInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>W1-R1 문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E2 문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇인가에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열리지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-C 문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 권한이 없어 지나갈 수 없어.</t>
+  </si>
 </sst>
 </file>
 
@@ -1040,7 +1145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,6 +1207,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1141,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1233,6 +1358,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1519,20 +1646,20 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="5" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1543,33 +1670,33 @@
         <v>5</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1587,9 +1714,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1598,18 +1725,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1618,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1635,92 +1762,92 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1737,24 +1864,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.19921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="35" style="5" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1765,16 +1892,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1786,9 +1913,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1804,9 +1931,9 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1818,13 +1945,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1836,11 +1963,11 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1855,93 +1982,93 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1962,16 +2089,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1982,20 +2109,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2004,9 +2131,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2015,98 +2142,98 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -2124,26 +2251,26 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2154,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="19"/>
@@ -2164,26 +2291,26 @@
       <c r="J1" s="5"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2198,9 +2325,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2209,145 +2336,145 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2369,26 +2496,26 @@
       <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2399,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="19"/>
@@ -2409,29 +2536,29 @@
       <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2446,12 +2573,12 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2460,42 +2587,42 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -2507,117 +2634,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2639,26 +2766,26 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2669,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="19"/>
@@ -2679,26 +2806,26 @@
       <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2710,12 +2837,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2724,15 +2851,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2744,125 +2871,125 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2880,65 +3007,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.19921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2956,9 +3083,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2967,18 +3094,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2993,16 +3120,16 @@
         <v>-1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -3010,86 +3137,116 @@
       <c r="E6" s="6">
         <v>-1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -3111,26 +3268,26 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.19921875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3141,52 +3298,52 @@
         <v>7</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I1" s="29"/>
       <c r="J1" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K1" s="30"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3198,21 +3355,21 @@
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3221,24 +3378,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3247,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -3262,22 +3419,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="F6" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" s="22" t="b">
         <v>1</v>
@@ -3290,13 +3447,13 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -3314,22 +3471,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="21" t="b">
         <v>1</v>
@@ -3338,13 +3495,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -3353,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9" s="21" t="b">
         <v>1</v>
@@ -3362,13 +3519,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -3386,13 +3543,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -3410,13 +3567,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -3434,13 +3591,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -3458,13 +3615,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3">
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -3482,13 +3639,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -3506,22 +3663,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3">
         <v>11</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" s="26" t="b">
         <v>1</v>
@@ -3530,67 +3687,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3615,21 +3772,21 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="24" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="24" customWidth="1"/>
     <col min="3" max="3" width="18" style="24" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="24" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="24" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="24">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3640,36 +3797,36 @@
         <v>6</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3687,12 +3844,12 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3701,151 +3858,151 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -3866,22 +4023,22 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="25" customWidth="1"/>
     <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="25" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3892,39 +4049,39 @@
         <v>7</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3948,9 +4105,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3959,33 +4116,33 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -3994,110 +4151,110 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -4118,22 +4275,22 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.09765625" style="17" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.875" customWidth="1"/>
-    <col min="8" max="12" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="46.8984375" customWidth="1"/>
+    <col min="8" max="12" width="8.59765625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -4144,37 +4301,37 @@
         <v>6</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -4195,9 +4352,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -4206,21 +4363,21 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4232,144 +4389,144 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="25">
         <v>4</v>
       </c>
       <c r="E6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACADE7D-D089-4AF4-8A43-8AA922D76F17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA14109-253B-4379-A406-BB1C75ECD567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="162">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noItemString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1032,6 +1028,36 @@
     <t>ItemInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>needItemNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unLockString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠금 해제 시
+출력될 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 아이템이 없을 시 
+출력될 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lockedString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열릴리가 없는 물체임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열리면 안되는 물체임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1141,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1199,6 +1225,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1532,7 +1564,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1542,34 +1574,34 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1589,7 +1621,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1598,18 +1630,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1618,13 +1650,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1635,13 +1667,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1737,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1754,7 +1786,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1764,17 +1796,17 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1788,7 +1820,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1806,7 +1838,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1818,13 +1850,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1836,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1860,13 +1892,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1971,7 +2003,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1984,10 +2016,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1995,7 +2027,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2006,7 +2038,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2017,13 +2049,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2143,7 +2175,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2153,10 +2185,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="31"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -2166,24 +2198,24 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2200,7 +2232,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2209,27 +2241,27 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2241,7 +2273,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -2388,7 +2420,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2398,10 +2430,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="31"/>
       <c r="F1" s="19"/>
       <c r="G1" s="28"/>
       <c r="H1" s="20"/>
@@ -2411,27 +2443,27 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2446,12 +2478,12 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2460,33 +2492,33 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2495,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -2511,7 +2543,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="20"/>
     </row>
@@ -2658,7 +2690,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2668,10 +2700,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="31"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -2681,24 +2713,24 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2710,12 +2742,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2724,15 +2756,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2744,7 +2776,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2756,7 +2788,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="20"/>
     </row>
@@ -2878,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2891,13 +2923,13 @@
     <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2905,40 +2937,46 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>5</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2955,10 +2993,16 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2967,18 +3011,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2992,17 +3042,23 @@
       <c r="E5" s="6">
         <v>-1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -3010,38 +3066,44 @@
       <c r="E6" s="6">
         <v>-1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -3130,7 +3192,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3140,53 +3202,53 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
+      <c r="D1" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="32"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3198,21 +3260,21 @@
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3221,24 +3283,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3247,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="F5" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -3268,16 +3330,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="F6" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="22" t="b">
         <v>1</v>
@@ -3296,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -3320,16 +3382,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="G8" s="21" t="b">
         <v>1</v>
@@ -3344,7 +3406,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -3353,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="21" t="b">
         <v>1</v>
@@ -3368,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -3392,7 +3454,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -3416,7 +3478,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -3440,7 +3502,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -3464,7 +3526,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -3488,7 +3550,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -3512,16 +3574,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="26" t="b">
         <v>1</v>
@@ -3629,7 +3691,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="24">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3639,37 +3701,37 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3687,12 +3749,12 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3701,39 +3763,39 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -3741,19 +3803,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3761,19 +3823,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3881,7 +3943,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3891,40 +3953,40 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3950,7 +4012,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3959,33 +4021,33 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -3994,10 +4056,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4005,11 +4067,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -4017,10 +4079,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4133,7 +4195,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -4143,38 +4205,38 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="31"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -4197,7 +4259,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -4206,21 +4268,21 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4232,13 +4294,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4247,19 +4309,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="25">
         <v>4</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB51481-0020-4CA3-ACCC-0C64962A42DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB2947B-9BC9-4BB9-82D7-AFA09D974495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="677" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="165">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noItemString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1137,6 +1133,62 @@
   <si>
     <t>관리자 권한이 없어 지나갈 수 없어.</t>
   </si>
+  <si>
+    <t>lockedString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unLockString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열려서는 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열려서는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안됨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드키로 문을 열었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needItemNumList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 아이템 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1145,7 +1197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1227,6 +1279,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1266,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1352,14 +1410,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1646,20 +1717,20 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1669,34 +1740,34 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1714,9 +1785,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1725,18 +1796,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1745,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1762,92 +1833,92 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -1868,20 +1939,20 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="35" style="5" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -1891,17 +1962,17 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -1913,9 +1984,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1931,9 +2002,9 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1945,13 +2016,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1963,11 +2034,11 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1982,93 +2053,93 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -2089,16 +2160,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2109,20 +2180,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2131,9 +2202,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2142,98 +2213,98 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -2251,26 +2322,26 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2280,10 +2351,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -2291,26 +2362,26 @@
       <c r="J1" s="5"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2325,9 +2396,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2336,145 +2407,145 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2496,26 +2567,26 @@
       <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.09765625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.09765625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2525,10 +2596,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="34"/>
       <c r="F1" s="19"/>
       <c r="G1" s="28"/>
       <c r="H1" s="20"/>
@@ -2536,29 +2607,29 @@
       <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2573,12 +2644,12 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2587,42 +2658,42 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -2634,117 +2705,117 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2766,26 +2837,26 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="26.59765625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2795,10 +2866,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -2806,26 +2877,26 @@
       <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2837,12 +2908,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2851,15 +2922,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2871,125 +2942,125 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3005,67 +3076,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" customWidth="1"/>
-    <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="33.19921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13" style="29" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="29" customWidth="1"/>
+    <col min="7" max="7" width="33.25" style="17" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>4</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="29">
         <f>COUNTA(3:3) - 1</f>
-        <v>5</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="F2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3080,12 +3159,18 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3094,18 +3179,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3119,17 +3210,23 @@
       <c r="E5" s="6">
         <v>-1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -3137,116 +3234,134 @@
       <c r="E6" s="6">
         <v>-1</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="29">
+        <v>3</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -3264,30 +3379,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.19921875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3297,53 +3412,53 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
+      <c r="D1" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="35"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3355,21 +3470,21 @@
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3378,24 +3493,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -3404,13 +3519,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="F5" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -3419,22 +3534,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="F6" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="22" t="b">
         <v>1</v>
@@ -3447,13 +3562,13 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -3471,23 +3586,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>103</v>
-      </c>
       <c r="G8" s="21" t="b">
         <v>1</v>
       </c>
@@ -3495,13 +3610,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -3510,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="21" t="b">
         <v>1</v>
@@ -3519,13 +3634,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -3543,13 +3658,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -3567,13 +3682,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -3591,13 +3706,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -3615,13 +3730,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3">
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -3639,13 +3754,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -3660,25 +3775,25 @@
         <v>1</v>
       </c>
       <c r="H15" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3">
         <v>11</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="26" t="b">
         <v>1</v>
@@ -3687,67 +3802,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3772,21 +3887,21 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="24" customWidth="1"/>
     <col min="3" max="3" width="18" style="24" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="24" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="24">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3796,37 +3911,37 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3844,12 +3959,12 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3858,151 +3973,151 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -4023,22 +4138,22 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
     <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -4048,40 +4163,40 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -4105,9 +4220,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -4116,33 +4231,33 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -4151,22 +4266,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -4174,87 +4289,87 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -4275,22 +4390,22 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.09765625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.8984375" customWidth="1"/>
-    <col min="8" max="12" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="46.875" customWidth="1"/>
+    <col min="8" max="12" width="8.625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -4300,38 +4415,38 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="29"/>
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -4352,9 +4467,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -4363,21 +4478,21 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4389,144 +4504,144 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="25">
         <v>4</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB2947B-9BC9-4BB9-82D7-AFA09D974495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E0573D-DE95-4DC6-BAFD-8924B2E90113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="677" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="677" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
     <sheet name="4.Choose" sheetId="5" r:id="rId2"/>
-    <sheet name="8.ItemControl" sheetId="11" r:id="rId3"/>
-    <sheet name="9.StressControl" sheetId="12" r:id="rId4"/>
-    <sheet name="10.Lock" sheetId="4" r:id="rId5"/>
-    <sheet name="Interaction" sheetId="10" r:id="rId6"/>
-    <sheet name="DollTalk" sheetId="14" r:id="rId7"/>
-    <sheet name="Anima" sheetId="17" r:id="rId8"/>
-    <sheet name="StellaAbility" sheetId="8" r:id="rId9"/>
-    <sheet name="Item" sheetId="1" r:id="rId10"/>
-    <sheet name="SaveData" sheetId="7" r:id="rId11"/>
+    <sheet name="5.MoveControl" sheetId="18" r:id="rId3"/>
+    <sheet name="7.CameraControl" sheetId="19" r:id="rId4"/>
+    <sheet name="8.ItemControl" sheetId="11" r:id="rId5"/>
+    <sheet name="9.StressControl" sheetId="12" r:id="rId6"/>
+    <sheet name="10.Lock" sheetId="4" r:id="rId7"/>
+    <sheet name="Interaction" sheetId="10" r:id="rId8"/>
+    <sheet name="DollTalk" sheetId="14" r:id="rId9"/>
+    <sheet name="Anima" sheetId="17" r:id="rId10"/>
+    <sheet name="StellaAbility" sheetId="8" r:id="rId11"/>
+    <sheet name="Item" sheetId="1" r:id="rId12"/>
+    <sheet name="SaveData" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="174">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,130 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[상호작용 물체의 종류]
-2. 오브젝트 생성 / 소멸 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Object</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. 대사 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Script</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4. 선택지 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Choose</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5. 이동 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Teleport</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6. 애니메이션 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Animation</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택지 결과에 대한
 Interaction 실행
 (없으면 0)</t>
@@ -421,12 +299,6 @@
   <si>
     <t>초기 상태
 (FALSE: 비활성화 상태)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용
-물체 index
-(3,4,10 이외에는 0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1189,6 +1061,182 @@
     <t>필요한 아이템 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[상호작용 물체의 종류]
+2. 오브젝트 생성 / 소멸 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. 대사 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Script</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. 선택지 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choose</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 이동 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Move</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6. 애니메이션 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Animation</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용
+물체 index
+(다른 데이터 시트에 있는 idx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"># 추가적으로 Unity 내에서 설정 필요
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartScene 에서 Girl_Room 으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destinationScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraControl
+0: Fadeout
+1: FadeIn
+2: Follow Object
+3. Move Target1 to Target2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl_Room에서 W1_E2로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneName
+StartScene = 0,
+Girl_room = 1,
+    W1_E2 = 2,
+W1_Hall = 3,
+W1_E1 = 4,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl_Room안에서 텔레포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 더미 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1197,7 +1245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1333,15 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1324,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1425,7 +1482,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1740,10 +1806,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -1756,13 +1822,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1796,13 +1862,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1816,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1833,13 +1899,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1932,6 +1998,531 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D44B4B-E1F2-4995-A8CD-CF532127F36C}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="25">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="25">
+        <f>COUNTA(3:3) - 1</f>
+        <v>7</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15" style="17" customWidth="1"/>
+    <col min="7" max="7" width="46.875" customWidth="1"/>
+    <col min="8" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="5">
+        <f>COUNTA(3:3) - 1</f>
+        <v>6</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -1962,10 +2553,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2016,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2058,13 +2649,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2152,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4D25F-A186-43DA-B17F-8A5D453FA7CA}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -2351,10 +2942,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -2376,7 +2967,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2407,10 +2998,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2421,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2560,6 +3151,489 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110EC30-6882-475E-92CA-491FCED2A75A}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="34" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="34" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="34" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="21" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="34">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>3</v>
+      </c>
+      <c r="C1" s="34">
+        <f>COUNTA(3:3) - 1</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="34">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F544392-E2FB-48BE-B2B7-BE864BD68C78}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="34" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="34" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="21" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25" style="17" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="34">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="34">
+        <f>COUNTA(3:3) - 1</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3"/>
+      <c r="D7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE0F44A-9C18-4C33-A0A2-0F0DFC6F241E}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -2596,10 +3670,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="34"/>
+      <c r="D1" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="36"/>
       <c r="F1" s="19"/>
       <c r="G1" s="28"/>
       <c r="H1" s="20"/>
@@ -2618,13 +3692,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2644,7 +3718,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -2658,13 +3732,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2675,16 +3749,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2693,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -2829,7 +3903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B63AF7-E119-4687-8DD8-29B29EE6460A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -2866,10 +3940,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -2888,10 +3962,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2922,10 +3996,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2942,7 +4016,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3074,7 +4148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -3107,14 +4181,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -3127,13 +4201,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>15</v>
@@ -3179,19 +4253,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3214,10 +4288,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3226,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -3238,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3250,7 +4324,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" s="29">
         <v>0</v>
@@ -3262,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3274,7 +4348,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="29">
         <v>0</v>
@@ -3286,10 +4360,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3375,12 +4449,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3389,7 +4463,7 @@
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="17" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
@@ -3406,28 +4480,28 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34" t="s">
+      <c r="D1" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -3444,16 +4518,16 @@
         <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3473,7 +4547,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>42</v>
@@ -3493,19 +4567,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
@@ -3519,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -3540,16 +4614,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>93</v>
-      </c>
       <c r="F6" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G6" s="22" t="b">
         <v>1</v>
@@ -3568,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -3592,16 +4666,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8" s="21" t="b">
         <v>1</v>
@@ -3616,7 +4690,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -3625,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" s="21" t="b">
         <v>1</v>
@@ -3640,22 +4714,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
       </c>
       <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28" t="b">
         <v>0</v>
-      </c>
-      <c r="F10" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="28" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -3664,7 +4738,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -3688,7 +4762,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -3703,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -3712,7 +4786,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -3736,7 +4810,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -3760,7 +4834,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -3784,16 +4858,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" s="26" t="b">
         <v>1</v>
@@ -3802,67 +4876,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="35">
+        <v>5</v>
+      </c>
+      <c r="E17" s="35">
+        <v>2</v>
+      </c>
+      <c r="F17" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3879,7 +4973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -3911,10 +5005,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3927,16 +5021,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3959,7 +5053,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3973,16 +5067,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -3993,19 +5087,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -4013,19 +5107,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -4033,19 +5127,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -4118,531 +5212,6 @@
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D44B4B-E1F2-4995-A8CD-CF532127F36C}">
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
-    <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="25">
-        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
-      </c>
-      <c r="C1" s="25">
-        <f>COUNTA(3:3) - 1</f>
-        <v>7</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
-  <dimension ref="A1:L32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.875" customWidth="1"/>
-    <col min="8" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5">
-        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
-      </c>
-      <c r="C1" s="5">
-        <f>COUNTA(3:3) - 1</f>
-        <v>6</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="25">
-        <v>4</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="3"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E0573D-DE95-4DC6-BAFD-8924B2E90113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84CCF49-6EFF-4F4F-B375-EC06877AD227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="677" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="182">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,10 +567,6 @@
   </si>
   <si>
     <t>애니메이션 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라워크 더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1209,14 +1205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CameraControl
-0: Fadeout
-1: FadeIn
-2: Follow Object
-3. Move Target1 to Target2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Girl_Room에서 W1_E2로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1235,6 +1223,68 @@
   </si>
   <si>
     <t>이동 더미 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milisecond 단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드 아웃 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이드 인 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 이동 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraControl
+0: Fadeout
+1: FadeIn
+2: Move Target1 to Target2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># 추가적으로 Unity 내에서 설정 필요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resources\Prefabs\InteractObject 에서 
+5_1.SceneMovePoint 복사해서
+beforeSceneName, idx 설정 필요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 제어 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,,,
+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,,,
+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,7 +1431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1478,6 +1528,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1806,10 +1859,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -1822,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>47</v>
@@ -1882,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1899,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2030,10 +2083,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2043,22 +2096,22 @@
         <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2098,19 +2151,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
@@ -2121,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -2133,10 +2186,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2144,11 +2197,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -2156,10 +2209,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2282,10 +2335,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -2308,7 +2361,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2348,13 +2401,13 @@
         <v>35</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -2377,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2386,19 +2439,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="25">
         <v>4</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2553,10 +2606,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2607,7 +2660,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2649,13 +2702,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2942,10 +2995,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -3018,7 +3071,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3155,7 +3208,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3187,14 +3240,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="38"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
@@ -3211,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3239,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3250,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
@@ -3262,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" s="34">
         <v>2</v>
@@ -3274,7 +3327,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" s="34">
         <v>1</v>
@@ -3403,7 +3456,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3429,20 +3482,20 @@
       </c>
       <c r="B1" s="34">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="34">
         <f>COUNTA(3:3) - 1</f>
-        <v>3</v>
-      </c>
-      <c r="D1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="38"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
@@ -3459,7 +3512,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3475,6 +3531,9 @@
       <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3487,7 +3546,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3498,23 +3560,44 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="34">
         <v>0</v>
       </c>
-      <c r="D5" s="34">
-        <v>1</v>
+      <c r="E5" s="36">
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36">
+        <v>3000</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="D7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="34"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="36">
+        <v>2</v>
+      </c>
+      <c r="E7" s="36">
+        <v>3000</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
@@ -3670,10 +3753,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="19"/>
       <c r="G1" s="28"/>
       <c r="H1" s="20"/>
@@ -3767,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -3940,10 +4023,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -3965,7 +4048,7 @@
         <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3999,7 +4082,7 @@
         <v>74</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4016,7 +4099,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4181,14 +4264,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="38"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -4207,7 +4290,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>15</v>
@@ -4259,13 +4342,13 @@
         <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4291,7 +4374,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4300,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -4312,10 +4395,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4324,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="29">
         <v>0</v>
@@ -4336,10 +4419,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4348,7 +4431,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="29">
         <v>0</v>
@@ -4360,10 +4443,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4453,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4486,22 +4569,22 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -4518,16 +4601,16 @@
         <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4573,13 +4656,13 @@
         <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
@@ -4599,7 +4682,7 @@
         <v>76</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -4614,16 +4697,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>91</v>
-      </c>
       <c r="F6" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G6" s="22" t="b">
         <v>1</v>
@@ -4669,13 +4752,13 @@
         <v>81</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>99</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="G8" s="21" t="b">
         <v>1</v>
@@ -4699,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" s="21" t="b">
         <v>1</v>
@@ -4756,19 +4839,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F12" s="23" t="b">
         <v>1</v>
@@ -4786,7 +4869,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -4810,7 +4893,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -4834,7 +4917,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -4858,13 +4941,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>77</v>
@@ -4882,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D17" s="35">
         <v>5</v>
@@ -5005,10 +5088,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="36"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -5021,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>47</v>
@@ -5030,7 +5113,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -5076,7 +5159,7 @@
         <v>53</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -5087,19 +5170,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -5107,19 +5190,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -5127,19 +5210,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84CCF49-6EFF-4F4F-B375-EC06877AD227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2B382-E977-4255-9312-4897C9B8E173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="677" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="195">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1285,6 +1285,64 @@
   <si>
     <t>0,,,
 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_책상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_실험기구선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_욕조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_큰책상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀의방_옷장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책상이다,,,
+책상 위는 깔끔하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_idle,,,
+girl_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 기구들이 나열되어 있다,,,
+어떻게 쓰는 물건들일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕조다,,,
+사람 하나가 들어갈 정도의 크기다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_idle,,,
+girl_thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넓은 책상이다,,,
+위에는 아무것도 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨끗한 옷 몇벌이 정돈되어 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,7 +1489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1528,6 +1586,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1832,39 +1893,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="5" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +1945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1904,7 +1965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +1985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +2005,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1961,83 +2022,149 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -2054,24 +2181,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D44B4B-E1F2-4995-A8CD-CF532127F36C}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="25" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="25" customWidth="1"/>
     <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="25" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -2083,12 +2210,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
@@ -2114,7 +2241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -2166,7 +2293,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
@@ -2192,7 +2319,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2215,81 +2342,81 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -2310,20 +2437,20 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.09765625" style="17" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.875" customWidth="1"/>
-    <col min="8" max="12" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="46.8984375" customWidth="1"/>
+    <col min="8" max="12" width="8.59765625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -2335,13 +2462,13 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -2364,7 +2491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -2387,7 +2514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2537,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
@@ -2433,7 +2560,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -2454,114 +2581,114 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -2583,18 +2710,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.19921875" style="5" customWidth="1"/>
     <col min="5" max="5" width="35" style="5" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -2606,12 +2733,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
@@ -2628,7 +2755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -2646,7 +2773,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -2664,7 +2791,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
@@ -2682,7 +2809,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2697,7 +2824,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -2711,79 +2838,79 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -2804,14 +2931,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -2824,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -2835,7 +2962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -2846,7 +2973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
@@ -2857,7 +2984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
@@ -2868,87 +2995,87 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -2966,24 +3093,24 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -2995,10 +3122,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -3006,7 +3133,7 @@
       <c r="J1" s="5"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +3150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -3040,7 +3167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -3057,7 +3184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
@@ -3074,12 +3201,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
@@ -3087,109 +3214,109 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3208,27 +3335,27 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="34" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="34" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="34" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="35.19921875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.09765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -3240,20 +3367,20 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="38"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -3267,7 +3394,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -3281,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -3295,7 +3422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
@@ -3309,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -3321,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
@@ -3334,109 +3461,109 @@
       </c>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="34"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3459,24 +3586,24 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="34" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="34" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.09765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -3488,20 +3615,20 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="38"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -3518,7 +3645,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -3535,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -3552,7 +3679,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
@@ -3569,7 +3696,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -3584,7 +3711,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
@@ -3599,109 +3726,109 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="34"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="34"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3724,24 +3851,24 @@
       <selection activeCell="G1" sqref="G1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.09765625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -3753,10 +3880,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="19"/>
       <c r="G1" s="28"/>
       <c r="H1" s="20"/>
@@ -3764,7 +3891,7 @@
       <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -3784,7 +3911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -3804,7 +3931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -3824,7 +3951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
@@ -3844,7 +3971,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -3862,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
@@ -3870,109 +3997,109 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3994,24 +4121,24 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -4023,10 +4150,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -4034,7 +4161,7 @@
       <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -4051,7 +4178,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -4068,7 +4195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -4085,7 +4212,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
@@ -4102,12 +4229,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
@@ -4115,109 +4242,109 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -4239,20 +4366,20 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" style="17" customWidth="1"/>
     <col min="2" max="2" width="13" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="29" customWidth="1"/>
-    <col min="7" max="7" width="33.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="33.19921875" style="17" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -4264,16 +4391,16 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -4299,7 +4426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
@@ -4325,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
@@ -4351,7 +4478,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
@@ -4377,7 +4504,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -4401,7 +4528,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="29">
         <v>2</v>
@@ -4425,7 +4552,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="29">
         <v>3</v>
@@ -4449,76 +4576,76 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -4536,28 +4663,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -4569,25 +4696,25 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
@@ -4613,7 +4740,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>19</v>
       </c>
@@ -4639,7 +4766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
@@ -4665,7 +4792,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
@@ -4691,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -4719,7 +4846,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
@@ -4743,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
@@ -4767,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>4</v>
@@ -4791,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>5</v>
@@ -4815,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>6</v>
@@ -4839,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>7</v>
@@ -4863,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
@@ -4887,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="3">
         <v>9</v>
@@ -4911,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>10</v>
@@ -4935,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="3">
         <v>11</v>
@@ -4959,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="3">
         <v>12</v>
@@ -4983,63 +5110,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -5064,19 +5191,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="24" customWidth="1"/>
+    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="24" customWidth="1"/>
     <col min="3" max="3" width="18" style="24" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="24" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="24" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
@@ -5088,12 +5215,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
@@ -5116,7 +5243,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -5139,7 +5266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -5162,7 +5289,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
@@ -5185,7 +5312,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -5205,7 +5332,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -5225,76 +5352,76 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2B382-E977-4255-9312-4897C9B8E173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798ADE7-C259-4EEF-B5C6-BB342E41F9AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="227">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소녀의방_침대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1288,26 +1284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소녀의방_책상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소녀의방_실험기구선반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소녀의방_욕조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소녀의방_큰책상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소녀의방_옷장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>책상이다,,,
 책상 위는 깔끔하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1343,6 +1319,168 @@
   </si>
   <si>
     <t>girl_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E2_선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-R1_침대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-R1_책상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-R1_실험기구선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-R1_큰책상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-R1_욕조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-R1_옷장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E2_시체(연구원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E2_연구용분석컴퓨터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E2_연구원용PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E2_아니마분석장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E2_실험기구선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E2_아니마격리시설(1형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 약품들이 진열되어 있다,,,
+영어로 쓰여 있어 뭐가 뭔지는 모르겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람이 죽어있어…,,,
+어? 저건 뭐지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구실에서 쓰인 듯 한 컴퓨터들이다,,,
+전원은 들어오지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨진 유리조각들이 흩어져있다,,,
+…무언가 있었던걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전히 망가진 기계장치다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_panic,,,
+girl_eureka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_idle,,,
+girl_worried</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E1_아니마격리시설(대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E1_연구원용PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E1_아니마격리시설(1형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E1_연구원시체(카드키)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방의 중앙을 가득 채운 거대한 수조다,,,
+무엇인가 안에 있었던게 분명하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 시체야…,,,
+…? 무엇인가 빛나는 것이 보인다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-C_제어패널(전원x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-C_제어패널(전원o)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-C_비상전원차단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전원이 꺼진 듯 하다,,,
+이대로는 아무것도 할 수 없을것같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽면에 전기 모양이 마크가 그려져 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-R2_스텔라(빛)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 방 안에서 유달리 눈에 띄게 반짝인다...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_surprised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유일하게 전원이 들어온 노트북이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-R2_전원이켜진노트북(첫조사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불빛이 들어온 버튼이 보인다,,,
+비밀번호를 입력하시오…?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1489,7 +1627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1586,6 +1724,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1893,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1910,44 +2057,44 @@
   <sheetData>
     <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -1967,7 +2114,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1976,18 +2123,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1996,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2010,16 +2157,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2027,16 +2174,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2044,16 +2191,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="E8" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2061,16 +2208,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="E9" s="37" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2078,93 +2225,320 @@
         <v>5</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B16" s="3">
+        <v>11</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B22" s="3">
+        <v>17</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B23" s="3">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
+        <v>19</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B26" s="3">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -2200,7 +2574,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2210,40 +2584,40 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2252,13 +2626,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>2</v>
@@ -2269,7 +2643,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2278,33 +2652,33 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -2313,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2324,11 +2698,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -2336,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2433,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2452,7 +2826,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2462,38 +2836,38 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2505,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>1</v>
@@ -2516,7 +2890,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2525,21 +2899,21 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2551,13 +2925,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.4">
@@ -2566,19 +2940,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="25">
         <v>4</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2707,7 +3081,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2723,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2733,17 +3107,17 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -2757,7 +3131,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2775,7 +3149,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2787,13 +3161,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2805,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2829,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -2940,7 +3314,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -2953,10 +3327,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -2964,7 +3338,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -2975,7 +3349,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2986,13 +3360,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -3090,7 +3464,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3112,7 +3486,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3122,10 +3496,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -3135,24 +3509,24 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3164,12 +3538,12 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3178,27 +3552,27 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -3210,7 +3584,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -3357,7 +3731,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="34">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3367,14 +3741,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="39"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="42"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
@@ -3382,21 +3756,21 @@
     </row>
     <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3410,7 +3784,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3419,18 +3793,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
@@ -3442,7 +3816,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D6" s="34">
         <v>2</v>
@@ -3454,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D7" s="34">
         <v>1</v>
@@ -3605,7 +3979,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="34">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3615,14 +3989,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="39"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="42"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
@@ -3630,24 +4004,24 @@
     </row>
     <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3664,7 +4038,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3673,21 +4047,21 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="34">
         <v>0</v>
@@ -3702,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
@@ -3717,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="36">
         <v>2</v>
@@ -3848,7 +4222,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3870,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -3880,10 +4254,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="D1" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="41"/>
       <c r="F1" s="19"/>
       <c r="G1" s="28"/>
       <c r="H1" s="20"/>
@@ -3893,27 +4267,27 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -3922,18 +4296,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -3942,33 +4316,33 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -3977,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -3993,7 +4367,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="20"/>
     </row>
@@ -4140,7 +4514,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -4150,10 +4524,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -4163,24 +4537,24 @@
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -4192,12 +4566,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -4206,15 +4580,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4226,7 +4600,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -4238,7 +4612,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="20"/>
     </row>
@@ -4363,7 +4737,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4381,7 +4755,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="29">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -4391,44 +4765,44 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="40"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -4437,13 +4811,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>2</v>
@@ -4454,7 +4828,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -4463,24 +4837,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4498,10 +4872,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -4510,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -4522,10 +4896,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -4534,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="29">
         <v>0</v>
@@ -4546,10 +4920,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -4558,7 +4932,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="29">
         <v>0</v>
@@ -4570,10 +4944,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -4663,7 +5037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -4686,7 +5060,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -4696,53 +5070,53 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="40"/>
+      <c r="D1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="43"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -4751,24 +5125,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -4777,24 +5151,24 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4803,13 +5177,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="F5" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -4824,16 +5198,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="F6" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="22" t="b">
         <v>1</v>
@@ -4852,7 +5226,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -4876,16 +5250,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="G8" s="21" t="b">
         <v>1</v>
@@ -4900,7 +5274,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -4909,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="21" t="b">
         <v>1</v>
@@ -4924,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -4948,7 +5322,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -4972,13 +5346,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="F12" s="23" t="b">
         <v>1</v>
@@ -4996,7 +5370,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="5">
         <v>8</v>
@@ -5020,7 +5394,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -5044,7 +5418,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -5068,16 +5442,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="26" t="b">
         <v>1</v>
@@ -5092,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="35">
         <v>5</v>
@@ -5205,7 +5579,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="24">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
@@ -5215,37 +5589,37 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="D1" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
@@ -5263,12 +5637,12 @@
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -5277,39 +5651,39 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="G4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
@@ -5317,19 +5691,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5337,19 +5711,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798ADE7-C259-4EEF-B5C6-BB342E41F9AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E6F17C-AA6E-41B8-8932-3F4B9CFC2DD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="206">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,15 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,,,
-3,,,
-4,,,
-8,,,
-9,,,
-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,,,
 0,,,
 0,,,
@@ -546,79 +537,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오브젝트 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스트레스 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠금 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,,,
-3,,,
-4,,,
-5,,,
-6,,,
-7,,,
-8,,,
-9,,,
-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,,,
-0,,,
-0,,,
-0,,,
-0,,,
-0,,,
-0,,,
-0,,,
-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더미 스크립트다. 테스트를 위해 스크립트를 좀 길게 작성함,,,
 가나다라마바사
 아자차카타파하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,,,
-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침대다,,,
-… 이불을 개긴 귀찮다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -635,33 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRUE,,,
-TRUE,,,
-FALSE,,,
-TRUE,,,
-TRUE,,,
-FALSE,,,
-TRUE,,,
-TRUE,,,
-FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE,,,
-FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,,,
-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE,,,
-TRUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나올 스크립트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -823,17 +717,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,,,
-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3,,,
 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사 더미 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1218,10 +1103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동 더미 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1270,20 +1151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카메라 제어 더미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,,,
-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,,,
-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>책상이다,,,
 책상 위는 깔끔하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1481,6 +1348,26 @@
   <si>
     <t>불빛이 들어온 버튼이 보인다,,,
 비밀번호를 입력하시오…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,,,
+3,,,
+4,,,
+5,,,
+7,,,
+8,,,
+9,,,
+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대다,,,
+…이불이나 개고 있을 때가 아닌것 같다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1627,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1685,15 +1572,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2040,22 +1918,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -2067,12 +1945,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -2083,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>46</v>
@@ -2092,7 +1970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -2112,7 +1990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -2132,7 +2010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -2143,402 +2021,402 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>194</v>
+      <c r="C9" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>182</v>
+        <v>160</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>193</v>
+      <c r="C10" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>182</v>
+        <v>162</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>195</v>
+      <c r="C11" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>188</v>
+        <v>163</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>189</v>
+      <c r="C12" s="34" t="s">
+        <v>165</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>196</v>
+      <c r="C13" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>197</v>
+      <c r="C14" s="34" t="s">
+        <v>173</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>182</v>
+      <c r="C15" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>199</v>
+      <c r="C16" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>182</v>
+      <c r="C17" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>201</v>
+      <c r="C18" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>208</v>
+        <v>181</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>209</v>
+      <c r="C19" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>208</v>
+        <v>190</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>182</v>
+      <c r="C20" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>208</v>
+      <c r="C21" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>212</v>
+      <c r="C22" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>207</v>
+        <v>191</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>183</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>182</v>
+        <v>195</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>158</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>217</v>
+      <c r="C24" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>188</v>
+        <v>202</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="39" t="s">
-        <v>218</v>
+      <c r="C25" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>188</v>
+        <v>196</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>223</v>
+        <v>198</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>199</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="40" t="s">
-        <v>225</v>
+      <c r="C27" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>223</v>
+        <v>200</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>199</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -2559,37 +2437,37 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="18" style="25" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="25" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18" style="23" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="23" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="25">
+      <c r="B1" s="23">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>2</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="23">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -2597,25 +2475,25 @@
         <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -2641,7 +2519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -2652,22 +2530,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -2675,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -2687,21 +2565,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -2710,87 +2588,87 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -2811,20 +2689,20 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="25.09765625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.8984375" customWidth="1"/>
-    <col min="8" max="12" width="8.59765625" customWidth="1"/>
+    <col min="7" max="7" width="46.875" customWidth="1"/>
+    <col min="8" max="12" width="8.625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -2836,13 +2714,13 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -2862,10 +2740,10 @@
         <v>36</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -2888,7 +2766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -2902,16 +2780,16 @@
         <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -2930,139 +2808,139 @@
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="25">
+        <v>99</v>
+      </c>
+      <c r="D6" s="23">
         <v>4</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="25">
+      <c r="E6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="23">
         <v>1</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G6" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3084,18 +2962,18 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="35" style="5" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -3107,12 +2985,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -3129,7 +3007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -3147,7 +3025,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -3161,11 +3039,11 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -3183,7 +3061,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -3198,93 +3076,93 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
@@ -3305,14 +3183,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -3325,7 +3203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -3336,7 +3214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -3347,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -3358,7 +3236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -3369,87 +3247,87 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -3467,24 +3345,24 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -3496,10 +3374,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -3507,7 +3385,7 @@
       <c r="J1" s="5"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -3524,7 +3402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -3541,7 +3419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -3558,7 +3436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -3572,15 +3450,15 @@
         <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="5" t="s">
@@ -3588,109 +3466,109 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3712,49 +3590,49 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="35.19921875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.09765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="31" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="31">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="31">
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -3765,10 +3643,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -3782,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -3793,10 +3671,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -3804,140 +3682,140 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="34">
+        <v>145</v>
+      </c>
+      <c r="D5" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="34">
+      <c r="C6" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="C7" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -3960,49 +3838,49 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.09765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="31" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B1" s="31">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="31">
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -4013,13 +3891,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -4036,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -4047,13 +3925,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -4061,148 +3939,148 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="34">
+        <v>152</v>
+      </c>
+      <c r="D5" s="31">
         <v>0</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="32">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="36">
+        <v>153</v>
+      </c>
+      <c r="D6" s="32">
         <v>1</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="32">
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="36">
+        <v>154</v>
+      </c>
+      <c r="D7" s="32">
         <v>2</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="32">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -4225,24 +4103,24 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.09765625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.09765625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -4254,18 +4132,18 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="41"/>
+      <c r="D1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="38"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="28"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -4285,7 +4163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -4305,7 +4183,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -4325,7 +4203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -4342,16 +4220,16 @@
         <v>70</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -4363,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
@@ -4371,109 +4249,109 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -4495,24 +4373,24 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="26.59765625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -4524,10 +4402,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -4535,7 +4413,7 @@
       <c r="J1" s="20"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -4549,10 +4427,10 @@
         <v>72</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -4569,7 +4447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -4583,10 +4461,10 @@
         <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -4600,15 +4478,15 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="D7" s="20" t="s">
@@ -4616,109 +4494,109 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -4740,41 +4618,41 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="30.8984375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="33.19921875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="26" customWidth="1"/>
+    <col min="7" max="7" width="33.25" style="17" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29">
+      <c r="B1" s="26">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>4</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="26">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -4791,7 +4669,7 @@
         <v>56</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
@@ -4800,7 +4678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
@@ -4826,7 +4704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
@@ -4843,16 +4721,16 @@
         <v>60</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -4871,20 +4749,20 @@
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H5" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -4895,131 +4773,131 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G6" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="C7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="26">
         <v>0</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="26">
         <v>-1</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="30">
         <v>1</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G7" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="C8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="26">
         <v>1</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="30">
         <v>1</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G8" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
     </row>
   </sheetData>
@@ -5037,58 +4915,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.09765625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="29.69921875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.3984375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
     <col min="12" max="12" width="12" style="17" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="43"/>
+      <c r="K1" s="40"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -5102,19 +4980,19 @@
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -5140,7 +5018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -5157,16 +5035,16 @@
         <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="104.4" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -5177,370 +5055,168 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>94</v>
+      <c r="F5" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="28" t="b">
+      <c r="H5" s="25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="22" t="b">
+      <c r="C6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="37">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="28" t="b">
+      <c r="F6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="H6" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="5">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="3"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="5">
-        <v>9</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="3"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="5">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="3"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="3">
-        <v>11</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="3"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="3">
-        <v>12</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="35">
-        <v>5</v>
-      </c>
-      <c r="E17" s="35">
-        <v>2</v>
-      </c>
-      <c r="F17" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -5565,36 +5241,36 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="18" style="24" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18" style="22" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="22" customWidth="1"/>
     <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="22">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="22">
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -5605,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>46</v>
@@ -5614,10 +5290,10 @@
         <v>45</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -5640,7 +5316,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -5660,10 +5336,10 @@
         <v>52</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5671,131 +5347,131 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="24" t="s">
+      <c r="C6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="G6" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="24" t="s">
+      <c r="C7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E6F17C-AA6E-41B8-8932-3F4B9CFC2DD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0801240-2F82-4F38-A8DC-39AD875EDF61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="206">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,11 +285,6 @@
     <t>왼쪽 말하는 Sprite 이름
 Assets\Resources\Sprites에 위치
 (없으면 none)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none,,,
-dummy01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1368,6 +1363,10 @@
   <si>
     <t>침대다,,,
 …이불이나 개고 있을 때가 아닌것 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1514,7 +1513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1572,9 +1571,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1945,10 +1941,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -1961,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>46</v>
@@ -2001,13 +1997,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2021,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2035,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2052,16 +2048,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2069,254 +2065,254 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>170</v>
+      <c r="C9" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>169</v>
+      <c r="C10" s="32" t="s">
+        <v>168</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>171</v>
+      <c r="C11" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>164</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>165</v>
+      <c r="C12" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>158</v>
+        <v>177</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>172</v>
+      <c r="C13" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>183</v>
+        <v>178</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>173</v>
+      <c r="C14" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>158</v>
+        <v>179</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>158</v>
+      <c r="C15" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>175</v>
+      <c r="C16" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>164</v>
+        <v>181</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>158</v>
       </c>
+      <c r="E17" s="33" t="s">
+        <v>157</v>
+      </c>
       <c r="F17" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>177</v>
+      <c r="C18" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>183</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>185</v>
+      <c r="C19" s="33" t="s">
+        <v>184</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>158</v>
+      <c r="C20" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>157</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>184</v>
+      <c r="C21" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>188</v>
+      <c r="C22" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>183</v>
+        <v>190</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>182</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2324,50 +2320,50 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>158</v>
+        <v>194</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>157</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>193</v>
+      <c r="C24" s="34" t="s">
+        <v>192</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>164</v>
+        <v>201</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>194</v>
+      <c r="C25" s="34" t="s">
+        <v>193</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>164</v>
+        <v>195</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2375,33 +2371,33 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="36" t="s">
-        <v>199</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>201</v>
+      <c r="C27" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E27" s="36" t="s">
         <v>199</v>
       </c>
+      <c r="E27" s="35" t="s">
+        <v>198</v>
+      </c>
       <c r="F27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
@@ -2462,10 +2458,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2475,22 +2471,22 @@
         <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2530,19 +2526,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
@@ -2553,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -2565,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2576,10 +2572,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -2588,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2714,10 +2710,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -2740,7 +2736,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2780,13 +2776,13 @@
         <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -2809,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2818,19 +2814,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="23">
         <v>4</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="23">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2985,10 +2981,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3039,7 +3035,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3081,13 +3077,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3374,10 +3370,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -3430,10 +3426,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -3444,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3593,9 +3589,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="31" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="30" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="30" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="30" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
@@ -3611,25 +3607,25 @@
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31">
+      <c r="B1" s="30">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
-      <c r="C1" s="31">
+      <c r="C1" s="30">
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3643,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3671,7 +3667,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3682,9 +3678,9 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="31">
+        <v>144</v>
+      </c>
+      <c r="D5" s="30">
         <v>1</v>
       </c>
     </row>
@@ -3693,10 +3689,10 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="31">
+      <c r="C6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="30">
         <v>2</v>
       </c>
     </row>
@@ -3705,23 +3701,23 @@
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="31">
+      <c r="C7" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -3730,22 +3726,22 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -3841,9 +3837,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="31" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="30" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="30" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
@@ -3859,25 +3855,25 @@
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31">
+      <c r="B1" s="30">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
-      <c r="C1" s="31">
+      <c r="C1" s="30">
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3891,10 +3887,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3925,10 +3921,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3939,12 +3935,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="31">
+        <v>151</v>
+      </c>
+      <c r="D5" s="30">
         <v>0</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>3000</v>
       </c>
     </row>
@@ -3954,12 +3950,12 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="32">
+        <v>152</v>
+      </c>
+      <c r="D6" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>3000</v>
       </c>
     </row>
@@ -3969,24 +3965,24 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="32">
+        <v>153</v>
+      </c>
+      <c r="D7" s="31">
         <v>2</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -3995,22 +3991,22 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="31"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="31"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -4132,12 +4128,12 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="38"/>
+      <c r="D1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="37"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="25"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
@@ -4154,13 +4150,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4180,7 +4176,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -4194,13 +4190,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -4211,16 +4207,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4229,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -4402,10 +4398,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -4424,10 +4420,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4458,10 +4454,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4478,7 +4474,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4621,11 +4617,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="26" customWidth="1"/>
+    <col min="2" max="2" width="13" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="25" customWidth="1"/>
     <col min="7" max="7" width="33.25" style="17" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9" style="17"/>
@@ -4635,22 +4631,22 @@
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>4</v>
       </c>
-      <c r="C1" s="26">
+      <c r="C1" s="25">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="40"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -4663,13 +4659,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
@@ -4715,19 +4711,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4749,11 +4745,11 @@
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>136</v>
+      <c r="G5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4762,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -4773,59 +4769,59 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>137</v>
+      <c r="G6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="30">
-        <v>1</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>137</v>
+      <c r="H7" s="26" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="26">
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
-        <v>1</v>
-      </c>
-      <c r="F8" s="30">
-        <v>1</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>138</v>
+      <c r="H8" s="28" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4915,7 +4911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -4948,22 +4944,22 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="s">
+      <c r="D1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="40"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -4980,16 +4976,16 @@
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5009,7 +5005,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>41</v>
@@ -5029,19 +5025,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="132" x14ac:dyDescent="0.3">
@@ -5055,18 +5051,18 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="25" t="b">
+      <c r="H5" s="24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5075,10 +5071,10 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="37">
+      <c r="C6" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="36">
         <v>3</v>
       </c>
       <c r="E6" s="17">
@@ -5097,68 +5093,68 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
@@ -5235,9 +5231,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5248,12 +5244,12 @@
     <col min="3" max="3" width="18" style="22" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="22" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="22" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="17" customWidth="1"/>
     <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
     <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -5263,14 +5259,14 @@
       </c>
       <c r="C1" s="22">
         <f>COUNTA(3:3) - 1</f>
-        <v>6</v>
-      </c>
-      <c r="D1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -5281,19 +5277,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -5307,16 +5300,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -5327,19 +5317,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5347,83 +5334,74 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0801240-2F82-4F38-A8DC-39AD875EDF61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BE8F9-E6D0-4648-9961-71C7A378FCFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="234">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,11 +722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>girl_thinking,,,
-girl_idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>potionSample</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -773,109 +768,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무엇인가에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>열리지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W1-C 문</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 권한이 없어 지나갈 수 없어.</t>
   </si>
   <si>
     <t>lockedString</t>
@@ -1146,44 +1040,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>책상이다,,,
-책상 위는 깔끔하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>girl_idle,,,
 girl_idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여러 기구들이 나열되어 있다,,,
-어떻게 쓰는 물건들일까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>욕조다,,,
-사람 하나가 들어갈 정도의 크기다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>girl_idle,,,
-girl_thinking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넓은 책상이다,,,
-위에는 아무것도 없다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>깨끗한 옷 몇벌이 정돈되어 있다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>girl_idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W1-E2_선반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1233,16 +1098,6 @@
   </si>
   <si>
     <t>W1-E2_아니마격리시설(1형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다양한 약품들이 진열되어 있다,,,
-영어로 쓰여 있어 뭐가 뭔지는 모르겠다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람이 죽어있어…,,,
-어? 저건 뭐지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1256,15 +1111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완전히 망가진 기계장치다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>girl_panic,,,
-girl_eureka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>girl_idle,,,
 girl_worried</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1295,11 +1141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>또 시체야…,,,
-…? 무엇인가 빛나는 것이 보인다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W1-C_제어패널(전원x)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1312,37 +1153,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전원이 꺼진 듯 하다,,,
-이대로는 아무것도 할 수 없을것같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽면에 전기 모양이 마크가 그려져 있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W1-R2_스텔라(빛)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어두운 방 안에서 유달리 눈에 띄게 반짝인다...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>girl_surprised</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유일하게 전원이 들어온 노트북이다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W1-R2_전원이켜진노트북(첫조사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불빛이 들어온 버튼이 보인다,,,
-비밀번호를 입력하시오…?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1357,16 +1172,296 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>침대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침대다,,,
-…이불이나 개고 있을 때가 아닌것 같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>randomKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none,,,
+girl_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책상이다. 깔끔하게 정돈되어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none,,,
+girl_thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침대다.,,,
+…이불이나 개고 있을 때가 아니지..,,,
+그냥 누워서 다시 자버릴까..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 실험 기구들이 나열되어 있다.,,,
+연구원 아저씨가 건들지 말라고 했었는데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넓은 책상이다,,,
+이렇게 큰 책상을 내 방에 왜 뒀는지는 모르겠지만..,,,
+연구실이나 회의실 같은 곳이 더 적합하지 않았을까..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none,,,
+girl_thinking,,,
+girl_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 약품들이 진열되어 있다,,,
+벤조..어쩌고..레보..어쩌고..,,,
+굳이 챙길 필요는 없겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none,,,
+girl_idle,,,
+girl_thinking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청나게 크고 복잡해보이는 컴퓨터,,,
+전원 버튼도 어디 있는지 모르겠어..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실에 흔히 있을법한 컴퓨터.,,,
+…,,,
+전원이 나갔네.. 안 켜져..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none,,,
+girl_noway,,,
+girl_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>욕조다.
+사람 한 명이 딱 들어갈 수 있는 크기이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전히 망가진 기계장치.
+원본이 무엇인지도 모르게 망가져있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 실험 기구들이 나열되어 있다.,,,
+내 방에 있는 것들보다 더 복잡해보여..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨진 유리조각들이 흩어져있다.,,,
+…무언가 있었던걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none,,,
+girl_worried</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_panic,,,
+girl_panic,,,
+girl_panic,,,
+girl_worried,,,
+girl_worried</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야..,,,
+시..시체라고? 우우욱…,,,
+하지만 대체..왜?,,,
+…아니, 하긴 실험실이니깐 이상한 건 아니지만..
+이건 너무 갑작스러운데..,,,
+잠깐.. 주머니에 저건..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_panic,,,
+girl_worried_2,,,
+girl_worried</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…또 시체…,,,
+여기에도 키카드가…있네…,,,
+죄송해요..죄송해요...잠깐만 빌릴게요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전원이 꺼진 모니터,,,
+얘는 좀 멀쩡해보이는데..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전원이 켜진 제어 패널,,,
+비밀번호를 입력… 비밀번호?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유일하게 전원이 들어온 노트북이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽면에 전기 모양이 마크가 그려져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 방 안에서 유달리 눈에 띄게 반짝인다…,,,
+주워도..괜찮으려나..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문이 열리지 않는다.
+문 앞의 무언가가 문을 막고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">잠겨있다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보안장치를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 해제할 무언가가 필요하다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1R1침대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1R1책상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1R1실험선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1R1욕조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1R1큰책상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1R1옷장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E2선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E2연구원시체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E2분석컴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E2연구원PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E2아니마분석장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E2실험선반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E2아니마1형격리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E1아니마대형격리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E1연구원PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E1아니마1형격리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E1연구원시체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1C제어전원X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1C제어전원O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1C전원차단기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1R2빛스텔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1R2노트북(전원O)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,6 +1569,20 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1513,7 +1622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1593,11 +1702,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1630,6 +1739,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1914,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2026,86 +2141,86 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>160</v>
+        <v>188</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>186</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>169</v>
+      <c r="C9" s="31" t="s">
+        <v>160</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>157</v>
+        <v>196</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>168</v>
+      <c r="C10" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>157</v>
+        <v>189</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>117</v>
@@ -2115,65 +2230,65 @@
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>170</v>
+      <c r="C11" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>164</v>
+      <c r="C12" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>157</v>
+        <v>191</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>171</v>
+      <c r="C13" s="32" t="s">
+        <v>162</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>182</v>
+        <v>202</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>201</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>172</v>
+      <c r="C14" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>157</v>
+        <v>193</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>117</v>
@@ -2183,48 +2298,48 @@
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>157</v>
+      <c r="C15" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>174</v>
+      <c r="C16" s="32" t="s">
+        <v>165</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>163</v>
+        <v>197</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>157</v>
+      <c r="C17" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>117</v>
@@ -2234,14 +2349,14 @@
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>176</v>
+      <c r="C18" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>183</v>
+        <v>199</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>117</v>
@@ -2251,14 +2366,14 @@
       <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>184</v>
+      <c r="C19" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>117</v>
@@ -2268,14 +2383,14 @@
       <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>157</v>
+      <c r="C20" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>153</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>117</v>
@@ -2285,48 +2400,48 @@
       <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>183</v>
+      <c r="C21" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>187</v>
+      <c r="C22" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>182</v>
+        <v>204</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>157</v>
+        <v>205</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>117</v>
@@ -2336,65 +2451,65 @@
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>192</v>
+      <c r="C24" s="33" t="s">
+        <v>178</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>163</v>
+        <v>206</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>184</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>193</v>
+      <c r="C25" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>163</v>
+        <v>208</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>198</v>
+        <v>209</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>200</v>
+      <c r="C27" s="34" t="s">
+        <v>181</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>198</v>
+        <v>207</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>175</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>117</v>
@@ -3035,7 +3150,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3077,13 +3192,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3589,9 +3704,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="30" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="29" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="29" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
@@ -3607,11 +3722,11 @@
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="29">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="29">
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
@@ -3620,12 +3735,12 @@
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="38" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G1" s="38"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3639,7 +3754,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3667,7 +3782,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3678,9 +3793,9 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="30">
+        <v>141</v>
+      </c>
+      <c r="D5" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3689,10 +3804,10 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="C6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="29">
         <v>2</v>
       </c>
     </row>
@@ -3701,23 +3816,23 @@
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="30"/>
+      <c r="C7" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -3726,22 +3841,22 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -3837,9 +3952,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="29" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="29" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
@@ -3855,11 +3970,11 @@
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="29">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
-      <c r="C1" s="30">
+      <c r="C1" s="29">
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
@@ -3868,12 +3983,12 @@
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G1" s="38"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3887,10 +4002,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3921,10 +4036,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3935,12 +4050,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
+        <v>148</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
         <v>3000</v>
       </c>
     </row>
@@ -3950,12 +4065,12 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="31">
-        <v>1</v>
-      </c>
-      <c r="E6" s="31">
+        <v>149</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
         <v>3000</v>
       </c>
     </row>
@@ -3965,24 +4080,24 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="31">
+        <v>150</v>
+      </c>
+      <c r="D7" s="30">
         <v>2</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -3991,22 +4106,22 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -4225,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -4423,7 +4538,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4457,7 +4572,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4474,7 +4589,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4611,7 +4726,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4622,7 +4737,7 @@
     <col min="4" max="4" width="29.375" style="25" customWidth="1"/>
     <col min="5" max="5" width="30.875" style="25" customWidth="1"/>
     <col min="6" max="6" width="18.75" style="25" customWidth="1"/>
-    <col min="7" max="7" width="33.25" style="17" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="17" customWidth="1"/>
     <col min="8" max="8" width="34.5" style="17" customWidth="1"/>
     <col min="9" max="16384" width="9" style="17"/>
   </cols>
@@ -4665,7 +4780,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
@@ -4717,13 +4832,13 @@
         <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4749,16 +4864,16 @@
         <v>48</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -4769,20 +4884,20 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>130</v>
+      <c r="G6" s="40" t="s">
+        <v>210</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="25">
         <v>2</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="25">
         <v>0</v>
@@ -4790,23 +4905,23 @@
       <c r="E7" s="25">
         <v>-1</v>
       </c>
-      <c r="F7" s="29">
-        <v>1</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>130</v>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>210</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="25">
         <v>3</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" s="25">
         <v>0</v>
@@ -4814,14 +4929,14 @@
       <c r="E8" s="25">
         <v>1</v>
       </c>
-      <c r="F8" s="29">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>137</v>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4911,15 +5026,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="27.375" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
@@ -4938,7 +5053,7 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
@@ -4949,7 +5064,7 @@
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G1" s="37"/>
       <c r="H1" s="37" t="s">
@@ -4976,16 +5091,16 @@
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5037,7 +5152,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="132" x14ac:dyDescent="0.3">
@@ -5051,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>73</v>
@@ -5071,10 +5186,10 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="36">
+      <c r="C6" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="35">
         <v>3</v>
       </c>
       <c r="E6" s="17">
@@ -5092,127 +5207,525 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="35">
+        <v>3</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="35">
+        <v>3</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="E9" s="17">
+        <v>4</v>
+      </c>
+      <c r="F9" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="35">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="35">
+        <v>3</v>
+      </c>
+      <c r="E11" s="17">
+        <v>6</v>
+      </c>
+      <c r="F11" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="35">
+        <v>3</v>
+      </c>
+      <c r="E12" s="17">
+        <v>7</v>
+      </c>
+      <c r="F12" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="35">
+        <v>3</v>
+      </c>
+      <c r="E13" s="17">
+        <v>8</v>
+      </c>
+      <c r="F13" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="35">
+        <v>3</v>
+      </c>
+      <c r="E14" s="17">
+        <v>9</v>
+      </c>
+      <c r="F14" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="35">
+        <v>3</v>
+      </c>
+      <c r="E15" s="17">
+        <v>10</v>
+      </c>
+      <c r="F15" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>11</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="35">
+        <v>3</v>
+      </c>
+      <c r="E16" s="17">
+        <v>11</v>
+      </c>
+      <c r="F16" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="35">
+        <v>3</v>
+      </c>
+      <c r="E17" s="17">
+        <v>12</v>
+      </c>
+      <c r="F17" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="17">
+        <v>13</v>
+      </c>
+      <c r="F18" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="17">
+        <v>14</v>
+      </c>
+      <c r="F19" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>15</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="17">
+        <v>15</v>
+      </c>
+      <c r="F20" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="17">
+        <v>16</v>
+      </c>
+      <c r="F21" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="17">
+        <v>17</v>
+      </c>
+      <c r="F22" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="17">
+        <v>18</v>
+      </c>
+      <c r="F23" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3</v>
+      </c>
+      <c r="E24" s="17">
+        <v>19</v>
+      </c>
+      <c r="F24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3</v>
+      </c>
+      <c r="E25" s="17">
+        <v>20</v>
+      </c>
+      <c r="F25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="17">
+        <v>21</v>
+      </c>
+      <c r="F26" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="17">
+        <v>22</v>
+      </c>
+      <c r="F27" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -5233,8 +5746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5323,7 +5836,7 @@
         <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BE8F9-E6D0-4648-9961-71C7A378FCFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CF95D6-E79B-447C-994C-6B2D3DF9469C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="233">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,10 +761,6 @@
   </si>
   <si>
     <t>W1-R1 문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E2 문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1622,7 +1618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1732,6 +1728,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1739,12 +1744,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2056,10 +2055,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2146,13 +2145,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>117</v>
@@ -2163,16 +2162,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2180,13 +2179,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>117</v>
@@ -2197,13 +2196,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>117</v>
@@ -2214,13 +2213,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>189</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>190</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>117</v>
@@ -2231,16 +2230,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2248,13 +2247,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>117</v>
@@ -2265,13 +2264,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>117</v>
@@ -2282,13 +2281,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>117</v>
@@ -2299,13 +2298,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>194</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>195</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>117</v>
@@ -2316,16 +2315,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -2333,13 +2332,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>117</v>
@@ -2350,13 +2349,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>117</v>
@@ -2367,13 +2366,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>117</v>
@@ -2384,13 +2383,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>117</v>
@@ -2401,13 +2400,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>117</v>
@@ -2418,13 +2417,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>117</v>
@@ -2435,13 +2434,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>117</v>
@@ -2452,16 +2451,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2469,16 +2468,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2486,16 +2485,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2503,13 +2502,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>117</v>
@@ -2573,10 +2572,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2825,10 +2824,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -3096,10 +3095,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3485,10 +3484,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -3730,14 +3729,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="38"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="41"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
@@ -3754,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3782,7 +3781,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3793,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="29">
         <v>1</v>
@@ -3805,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="29">
         <v>2</v>
@@ -3817,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="29">
         <v>1</v>
@@ -3978,14 +3977,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="38"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="41"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
@@ -4002,10 +4001,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4036,10 +4035,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4050,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="29">
         <v>0</v>
@@ -4065,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="30">
         <v>1</v>
@@ -4080,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="30">
         <v>2</v>
@@ -4243,10 +4242,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="19"/>
       <c r="G1" s="24"/>
       <c r="H1" s="20"/>
@@ -4513,10 +4512,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -4726,7 +4725,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4748,20 +4747,20 @@
       </c>
       <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="25">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="39"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -4780,7 +4779,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
@@ -4832,13 +4831,13 @@
         <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4864,7 +4863,7 @@
         <v>48</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4884,11 +4883,11 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>210</v>
+      <c r="G6" s="38" t="s">
+        <v>209</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -4896,48 +4895,30 @@
       <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="28">
-        <v>1</v>
-      </c>
-      <c r="G7" s="40" t="s">
+      <c r="D7" s="37">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1</v>
+      </c>
+      <c r="F7" s="37">
+        <v>1</v>
+      </c>
+      <c r="G7" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="25">
-        <v>3</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="28">
-        <v>1</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>134</v>
-      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
@@ -5026,8 +5007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5053,28 +5034,28 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -5091,7 +5072,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>125</v>
@@ -5166,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>73</v>
@@ -5187,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="35">
         <v>3</v>
@@ -5211,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="35">
         <v>3</v>
@@ -5235,7 +5216,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="35">
         <v>3</v>
@@ -5259,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="35">
         <v>3</v>
@@ -5283,7 +5264,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="35">
         <v>3</v>
@@ -5307,7 +5288,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" s="35">
         <v>3</v>
@@ -5331,7 +5312,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" s="35">
         <v>3</v>
@@ -5355,7 +5336,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" s="35">
         <v>3</v>
@@ -5379,7 +5360,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" s="35">
         <v>3</v>
@@ -5403,7 +5384,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" s="35">
         <v>3</v>
@@ -5427,7 +5408,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="35">
         <v>3</v>
@@ -5451,7 +5432,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" s="35">
         <v>3</v>
@@ -5475,7 +5456,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -5499,7 +5480,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -5523,7 +5504,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -5547,7 +5528,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -5571,7 +5552,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
@@ -5595,7 +5576,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
@@ -5619,7 +5600,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
@@ -5643,7 +5624,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -5667,7 +5648,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
@@ -5691,7 +5672,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
@@ -5711,11 +5692,15 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
@@ -5774,10 +5759,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -5836,7 +5821,7 @@
         <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CF95D6-E79B-447C-994C-6B2D3DF9469C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F079091-8FB4-4FED-BFB6-9D8A4667EE58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -2028,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2543,7 +2543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D44B4B-E1F2-4995-A8CD-CF532127F36C}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -2795,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3697,7 +3697,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4210,7 +4210,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4725,7 +4725,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B5:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5007,8 +5007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
@@ -5692,15 +5692,11 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
-      <c r="B28" s="3">
-        <v>23</v>
-      </c>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
-      <c r="B29" s="3">
-        <v>24</v>
-      </c>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
@@ -5732,7 +5728,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F079091-8FB4-4FED-BFB6-9D8A4667EE58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A45A9BF-93E8-4269-86B2-CB0DEA473084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="251">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,20 +971,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Girl_Room에서 W1_E2로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SceneName
 StartScene = 0,
 Girl_room = 1,
     W1_E2 = 2,
 W1_Hall = 3,
 W1_E1 = 4,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Girl_Room안에서 텔레포트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1268,15 +1260,6 @@
 girl_panic,,,
 girl_worried,,,
 girl_worried</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야..,,,
-시..시체라고? 우우욱…,,,
-하지만 대체..왜?,,,
-…아니, 하긴 실험실이니깐 이상한 건 아니지만..
-이건 너무 갑작스러운데..,,,
-잠깐.. 주머니에 저건..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1458,6 +1441,107 @@
   </si>
   <si>
     <t>W1R2노트북(전원O)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E2_시체발견트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…??,,,
+사람..인가? 저건..피?,,,
+..설마.. 아닐거야…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마..,,,
+시..시체라고? 우우욱…,,,
+하지만 대체..왜?,,,
+…아니, 하긴 실험실이니깐 이상한 건 아니지만..
+이건 너무 갑작스러운데..,,,
+잠깐.. 주머니에 저건..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_worried_2,,,
+girl_worried,,,
+girl_embarass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none,,,
+none,,,
+none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none,,,
+none,,,
+none,,,
+none,,,
+none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none,,,
+none,,,
+none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_E2에서 Girl_Room으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_E2에서 W1_Hall로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_Hall에서 W1_E2로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl_Room에서 W1_E2로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_Hall에서 W1_E1로_상단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_Hall에서 W1_E1로_하단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_Hall에서 W1_C로(더미)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_Hall에서 W1_R2로(더미)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_Hall에서 W1_I로(더미)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_E1에서 W1_Hall로_상단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_E1에서 W1_Hall로_하단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_C에서 W1_Hall로(더미)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_R2에서 W1_Hall로(더미)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_I에서 W1_Hall로(더미)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1618,7 +1702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1745,6 +1829,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2028,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2049,7 +2136,7 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
@@ -2145,16 +2232,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2162,16 +2249,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2179,13 +2266,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>117</v>
@@ -2196,16 +2283,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -2213,16 +2300,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2230,16 +2317,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2247,13 +2334,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>117</v>
@@ -2264,16 +2351,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2281,13 +2368,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>117</v>
@@ -2298,16 +2385,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2315,16 +2402,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -2332,13 +2419,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>117</v>
@@ -2349,13 +2436,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>117</v>
@@ -2366,13 +2453,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>117</v>
@@ -2383,13 +2470,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>117</v>
@@ -2400,13 +2487,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>117</v>
@@ -2417,16 +2504,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2434,13 +2521,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>117</v>
@@ -2451,16 +2538,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2468,16 +2555,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2485,16 +2572,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2502,20 +2589,34 @@
         <v>22</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
@@ -3696,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110EC30-6882-475E-92CA-491FCED2A75A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3723,7 +3824,7 @@
       </c>
       <c r="B1" s="29">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C1" s="29">
         <f>COUNTA(3:3) - 1</f>
@@ -3734,7 +3835,7 @@
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G1" s="41"/>
       <c r="H1" s="29"/>
@@ -3753,7 +3854,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3804,10 +3905,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="D6" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3816,116 +3917,212 @@
         <v>2</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="D7" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2</v>
+      </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="29">
+        <v>4</v>
+      </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="29">
+        <v>5</v>
+      </c>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="29">
+        <v>6</v>
+      </c>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="29">
+        <v>7</v>
+      </c>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3</v>
+      </c>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>11</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>13</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
     </row>
@@ -4001,10 +4198,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4038,7 +4235,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4049,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="29">
         <v>0</v>
@@ -4064,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="30">
         <v>1</v>
@@ -4079,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="30">
         <v>2</v>
@@ -4725,7 +4922,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B5:H7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4884,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>132</v>
@@ -4908,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>133</v>
@@ -5147,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>73</v>
@@ -5168,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D6" s="35">
         <v>3</v>
@@ -5192,7 +5389,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D7" s="35">
         <v>3</v>
@@ -5216,7 +5413,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="35">
         <v>3</v>
@@ -5240,7 +5437,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D9" s="35">
         <v>3</v>
@@ -5264,7 +5461,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D10" s="35">
         <v>3</v>
@@ -5288,7 +5485,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D11" s="35">
         <v>3</v>
@@ -5312,7 +5509,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D12" s="35">
         <v>3</v>
@@ -5336,7 +5533,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D13" s="35">
         <v>3</v>
@@ -5360,7 +5557,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D14" s="35">
         <v>3</v>
@@ -5384,7 +5581,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D15" s="35">
         <v>3</v>
@@ -5408,7 +5605,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D16" s="35">
         <v>3</v>
@@ -5432,7 +5629,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D17" s="35">
         <v>3</v>
@@ -5456,7 +5653,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -5480,7 +5677,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -5504,7 +5701,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -5528,7 +5725,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -5552,7 +5749,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
@@ -5576,7 +5773,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
@@ -5600,7 +5797,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
@@ -5624,7 +5821,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -5648,7 +5845,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
@@ -5672,7 +5869,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
@@ -5817,7 +6014,7 @@
         <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A45A9BF-93E8-4269-86B2-CB0DEA473084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9077315C-87F5-4E26-9A2C-D41E496A9540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="263">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -809,10 +809,6 @@
       </rPr>
       <t>안됨</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드키로 문을 열었다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1542,6 +1538,60 @@
   </si>
   <si>
     <t>W1_I에서 W1_Hall로(더미)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E2시체발견T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무언가에 의해 막힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_E1 키카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_C 키카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1 카드키로 문을 열었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제어실 카드키로 문을 열었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E1 키카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-C 키카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피가 묻은 카드다
+서측 1실험동 제어실이라는 라벨이 붙어있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피가 묻은 카드다
+서측 1실험동 1연구실 이라는 라벨이 붙어있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E1 카드키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1C 카드키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1702,7 +1752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1812,13 +1862,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1829,9 +1888,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2115,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2142,10 +2198,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2232,16 +2288,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2249,16 +2305,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2266,13 +2322,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>182</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>117</v>
@@ -2282,65 +2338,65 @@
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>157</v>
+      <c r="C9" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>172</v>
+        <v>192</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>156</v>
+      <c r="C10" s="30" t="s">
+        <v>155</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>187</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>158</v>
+      <c r="C11" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>172</v>
+        <v>150</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>171</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>152</v>
+      <c r="C12" s="31" t="s">
+        <v>151</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>181</v>
+        <v>187</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>117</v>
@@ -2350,31 +2406,31 @@
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>159</v>
+      <c r="C13" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>198</v>
+        <v>231</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>197</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>160</v>
+      <c r="C14" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>181</v>
+        <v>189</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>117</v>
@@ -2384,48 +2440,48 @@
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>192</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>162</v>
+      <c r="C16" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>172</v>
+        <v>193</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>183</v>
+      <c r="C17" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>182</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>117</v>
@@ -2435,14 +2491,14 @@
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>164</v>
+      <c r="C18" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>167</v>
+        <v>195</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>117</v>
@@ -2452,14 +2508,14 @@
       <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>168</v>
+      <c r="C19" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>167</v>
+        <v>172</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>117</v>
@@ -2469,14 +2525,14 @@
       <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>150</v>
+      <c r="C20" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>149</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>117</v>
@@ -2486,14 +2542,14 @@
       <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>197</v>
+      <c r="C21" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>196</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>117</v>
@@ -2503,17 +2559,17 @@
       <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="33" t="s">
-        <v>171</v>
+      <c r="C22" s="32" t="s">
+        <v>170</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="33" t="s">
         <v>199</v>
       </c>
+      <c r="E22" s="32" t="s">
+        <v>198</v>
+      </c>
       <c r="F22" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2521,13 +2577,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>181</v>
+        <v>200</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>180</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>117</v>
@@ -2537,14 +2593,14 @@
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>175</v>
+      <c r="C24" s="32" t="s">
+        <v>174</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>181</v>
+        <v>201</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>180</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>117</v>
@@ -2554,17 +2610,17 @@
       <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>176</v>
+      <c r="C25" s="32" t="s">
+        <v>175</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>172</v>
+        <v>203</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2572,33 +2628,33 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>172</v>
+        <v>204</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>178</v>
+      <c r="C27" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>172</v>
+        <v>202</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2606,16 +2662,16 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E28" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>233</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -2673,10 +2729,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2925,10 +2981,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -3170,7 +3226,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3190,16 +3246,16 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3301,11 +3357,33 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
@@ -3585,10 +3663,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -3797,16 +3875,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110EC30-6882-475E-92CA-491FCED2A75A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="29" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="29" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="28" customWidth="1"/>
+    <col min="3" max="3" width="35.25" style="28" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="28" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
@@ -3822,25 +3900,25 @@
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29">
+      <c r="B1" s="28">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>15</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="28">
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3854,7 +3932,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3882,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3893,9 +3971,9 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="29">
+        <v>139</v>
+      </c>
+      <c r="D5" s="28">
         <v>1</v>
       </c>
     </row>
@@ -3904,10 +3982,10 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="C6" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="28">
         <v>1</v>
       </c>
     </row>
@@ -3916,49 +3994,49 @@
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="29">
+      <c r="C7" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="28">
         <v>2</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="C8" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="28">
         <v>2</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="C9" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="28">
         <v>4</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="29">
+      <c r="C10" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="28">
         <v>4</v>
       </c>
     </row>
@@ -3967,62 +4045,62 @@
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="29">
+      <c r="C11" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="28">
         <v>5</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="29">
+      <c r="C12" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="28">
         <v>6</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="29">
+      <c r="C13" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="28">
         <v>7</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="29">
+      <c r="C14" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="28">
         <v>3</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="C15" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="28">
         <v>3</v>
       </c>
     </row>
@@ -4031,10 +4109,10 @@
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="C16" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="28">
         <v>3</v>
       </c>
     </row>
@@ -4043,10 +4121,10 @@
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="C17" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="28">
         <v>3</v>
       </c>
     </row>
@@ -4055,10 +4133,10 @@
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="29">
+      <c r="C18" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="28">
         <v>3</v>
       </c>
     </row>
@@ -4067,10 +4145,10 @@
       <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="29">
+      <c r="C19" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="28">
         <v>3</v>
       </c>
     </row>
@@ -4148,9 +4226,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="29" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="26.25" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="28" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="17" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="17" customWidth="1"/>
     <col min="7" max="7" width="29.75" style="17" customWidth="1"/>
@@ -4166,25 +4244,25 @@
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29">
+      <c r="B1" s="28">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
         <v>3</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="28">
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4198,10 +4276,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4232,10 +4310,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4246,12 +4324,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
+        <v>144</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
         <v>3000</v>
       </c>
     </row>
@@ -4261,12 +4339,12 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30">
+        <v>145</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
         <v>3000</v>
       </c>
     </row>
@@ -4276,24 +4354,24 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="30">
+        <v>146</v>
+      </c>
+      <c r="D7" s="29">
         <v>2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
-      <c r="E8" s="29"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
-      <c r="E9" s="29"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
@@ -4302,22 +4380,22 @@
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -4407,7 +4485,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4433,16 +4511,16 @@
       </c>
       <c r="B1" s="20">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="20">
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="19"/>
       <c r="G1" s="24"/>
       <c r="H1" s="20"/>
@@ -4550,16 +4628,39 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="D7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="20"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="20">
+        <v>3</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="20">
+        <v>4</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
@@ -4709,10 +4810,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -4922,7 +5023,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4944,20 +5045,20 @@
       </c>
       <c r="B1" s="25">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="25">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="42"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -4976,7 +5077,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
@@ -5028,7 +5129,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>129</v>
@@ -5080,8 +5181,8 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>206</v>
+      <c r="G6" s="37" t="s">
+        <v>205</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>132</v>
@@ -5092,30 +5193,48 @@
       <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="37">
-        <v>0</v>
-      </c>
-      <c r="E7" s="37">
-        <v>1</v>
-      </c>
-      <c r="F7" s="37">
-        <v>1</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>207</v>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>206</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="41">
+        <v>3</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
+        <v>1</v>
+      </c>
+      <c r="F8" s="41">
+        <v>1</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
@@ -5202,17 +5321,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B28:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="17" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="27.375" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
@@ -5230,29 +5349,29 @@
         <v>25</v>
       </c>
       <c r="B1" s="5">
-        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>23</v>
+        <f xml:space="preserve"> COUNTA(B5:B1997)</f>
+        <v>41</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="42"/>
+      <c r="K1" s="45"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -5269,7 +5388,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>125</v>
@@ -5344,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>73</v>
@@ -5364,10 +5483,10 @@
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="C6" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="34">
         <v>3</v>
       </c>
       <c r="E6" s="17">
@@ -5388,10 +5507,10 @@
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="35">
+      <c r="C7" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="34">
         <v>3</v>
       </c>
       <c r="E7" s="17">
@@ -5412,10 +5531,10 @@
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="35">
+      <c r="C8" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="34">
         <v>3</v>
       </c>
       <c r="E8" s="17">
@@ -5436,10 +5555,10 @@
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="35">
+      <c r="C9" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="34">
         <v>3</v>
       </c>
       <c r="E9" s="17">
@@ -5460,10 +5579,10 @@
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="C10" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="34">
         <v>3</v>
       </c>
       <c r="E10" s="17">
@@ -5484,10 +5603,10 @@
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="35">
+      <c r="C11" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="34">
         <v>3</v>
       </c>
       <c r="E11" s="17">
@@ -5508,10 +5627,10 @@
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="C12" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="34">
         <v>3</v>
       </c>
       <c r="E12" s="17">
@@ -5532,10 +5651,10 @@
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="35">
+      <c r="C13" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="34">
         <v>3</v>
       </c>
       <c r="E13" s="17">
@@ -5556,10 +5675,10 @@
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="35">
+      <c r="C14" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="34">
         <v>3</v>
       </c>
       <c r="E14" s="17">
@@ -5580,10 +5699,10 @@
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="35">
+      <c r="C15" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="34">
         <v>3</v>
       </c>
       <c r="E15" s="17">
@@ -5604,10 +5723,10 @@
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="35">
+      <c r="C16" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="34">
         <v>3</v>
       </c>
       <c r="E16" s="17">
@@ -5628,10 +5747,10 @@
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="35">
+      <c r="C17" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="34">
         <v>3</v>
       </c>
       <c r="E17" s="17">
@@ -5653,7 +5772,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -5677,7 +5796,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -5701,7 +5820,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -5725,7 +5844,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -5749,7 +5868,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
@@ -5773,7 +5892,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
@@ -5797,7 +5916,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
@@ -5821,7 +5940,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -5845,7 +5964,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
@@ -5869,7 +5988,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
@@ -5889,23 +6008,419 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3</v>
+      </c>
+      <c r="E28" s="17">
+        <v>23</v>
+      </c>
+      <c r="F28" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <v>24</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <v>25</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5</v>
+      </c>
+      <c r="E30" s="17">
+        <v>2</v>
+      </c>
+      <c r="F30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>26</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3</v>
+      </c>
+      <c r="F31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3">
+        <v>27</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5</v>
+      </c>
+      <c r="E32" s="17">
+        <v>4</v>
+      </c>
+      <c r="F32" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>28</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5</v>
+      </c>
+      <c r="F33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>29</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5</v>
+      </c>
+      <c r="E34" s="17">
+        <v>6</v>
+      </c>
+      <c r="F34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5</v>
+      </c>
+      <c r="E35" s="17">
+        <v>7</v>
+      </c>
+      <c r="F35" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>31</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8</v>
+      </c>
+      <c r="F36" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>32</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5</v>
+      </c>
+      <c r="E37" s="17">
+        <v>9</v>
+      </c>
+      <c r="F37" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>33</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="5">
+        <v>5</v>
+      </c>
+      <c r="E38" s="17">
+        <v>10</v>
+      </c>
+      <c r="F38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>34</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="5">
+        <v>5</v>
+      </c>
+      <c r="E39" s="17">
+        <v>11</v>
+      </c>
+      <c r="F39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>35</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="5">
+        <v>5</v>
+      </c>
+      <c r="E40" s="17">
+        <v>12</v>
+      </c>
+      <c r="F40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
+        <v>36</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="5">
+        <v>5</v>
+      </c>
+      <c r="E41" s="17">
+        <v>13</v>
+      </c>
+      <c r="F41" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="3">
+        <v>37</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="5">
+        <v>5</v>
+      </c>
+      <c r="E42" s="17">
+        <v>14</v>
+      </c>
+      <c r="F42" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
+        <v>38</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="5">
+        <v>10</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1</v>
+      </c>
+      <c r="F43" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="3">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="5">
+        <v>10</v>
+      </c>
+      <c r="E44" s="17">
+        <v>2</v>
+      </c>
+      <c r="F44" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="5">
+        <v>10</v>
+      </c>
+      <c r="E45" s="17">
+        <v>3</v>
+      </c>
+      <c r="F45" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5952,10 +6467,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -6014,7 +6529,7 @@
         <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9077315C-87F5-4E26-9A2C-D41E496A9540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A659DF1-98F5-4D40-B36E-F620746A3BAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="8.ItemControl" sheetId="11" r:id="rId5"/>
     <sheet name="9.StressControl" sheetId="12" r:id="rId6"/>
     <sheet name="10.Lock" sheetId="4" r:id="rId7"/>
-    <sheet name="Interaction" sheetId="10" r:id="rId8"/>
-    <sheet name="DollTalk" sheetId="14" r:id="rId9"/>
-    <sheet name="Anima" sheetId="17" r:id="rId10"/>
-    <sheet name="StellaAbility" sheetId="8" r:id="rId11"/>
-    <sheet name="Item" sheetId="1" r:id="rId12"/>
-    <sheet name="SaveData" sheetId="7" r:id="rId13"/>
+    <sheet name="11.StellaControl" sheetId="20" r:id="rId8"/>
+    <sheet name="Interaction" sheetId="10" r:id="rId9"/>
+    <sheet name="DollTalk" sheetId="14" r:id="rId10"/>
+    <sheet name="Anima" sheetId="17" r:id="rId11"/>
+    <sheet name="Stella" sheetId="8" r:id="rId12"/>
+    <sheet name="Item" sheetId="1" r:id="rId13"/>
+    <sheet name="SaveData" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="274">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,116 +347,6 @@
   </si>
   <si>
     <t>needTypeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. 카메라 워크 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CameraWalk</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-8. 아이템 획득, 삭제 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Item</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-9. 스트레스 수치 조정 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stress</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-10. 잠김 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lock</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-11. 이벤트 - 내부 코드로 대응</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1594,6 +1485,184 @@
     <t>W1C 카드키</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>주웠을 때 나오는 string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 아무튼 더미입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄준식은살아잇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add할 스텔라 idx들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텔라 개수 List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얻었을 때 나오는 string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stellaIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1실험동 제어실이라고 적힌 키 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1실험동 1실험실이라고 적힌 키 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. 카메라 워크 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CameraWalk</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8. 아이템 획득, 삭제 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Item</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9. 스트레스 수치 조정 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stress</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10. 잠김 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lock</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11. 스텔라 획득 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stella</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1602,7 +1671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,6 +1782,14 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1752,7 +1829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1880,6 +1957,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1888,6 +1968,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2198,10 +2281,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2214,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>46</v>
@@ -2274,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -2288,16 +2371,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2305,16 +2388,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2322,16 +2405,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2339,16 +2422,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -2356,16 +2439,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>186</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2373,16 +2456,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2390,16 +2473,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
@@ -2407,16 +2490,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2424,16 +2507,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2441,16 +2524,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>191</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2458,16 +2541,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -2475,16 +2558,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2492,16 +2575,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2509,16 +2592,16 @@
         <v>14</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2526,16 +2609,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2543,16 +2626,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -2560,16 +2643,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2577,16 +2660,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2594,16 +2677,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2611,16 +2694,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2628,16 +2711,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2645,16 +2728,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2662,16 +2745,16 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="E28" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>232</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -2697,6 +2780,239 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18" style="22" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="33.25" style="22" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="22">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>3</v>
+      </c>
+      <c r="C1" s="22">
+        <f>COUNTA(3:3) - 1</f>
+        <v>5</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D44B4B-E1F2-4995-A8CD-CF532127F36C}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -2729,10 +3045,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2742,22 +3058,22 @@
         <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2797,19 +3113,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
@@ -2820,10 +3136,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -2832,10 +3148,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2843,11 +3159,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -2855,10 +3171,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2948,7 +3264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -2981,10 +3297,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -3007,7 +3323,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3047,13 +3363,13 @@
         <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
@@ -3076,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3085,19 +3401,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="23">
         <v>4</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="23">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3221,7 +3537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -3252,10 +3568,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3306,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3348,13 +3664,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3362,13 +3678,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3376,13 +3692,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>258</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3464,7 +3780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4D25F-A186-43DA-B17F-8A5D453FA7CA}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -3631,7 +3947,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3663,10 +3979,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -3739,7 +4055,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3908,14 +4224,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="45"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -3932,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3960,7 +4276,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3971,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="28">
         <v>1</v>
@@ -3983,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="28">
         <v>1</v>
@@ -3995,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" s="28">
         <v>2</v>
@@ -4008,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="28">
         <v>2</v>
@@ -4021,7 +4337,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="28">
         <v>4</v>
@@ -4034,7 +4350,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="28">
         <v>4</v>
@@ -4046,7 +4362,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="28">
         <v>5</v>
@@ -4059,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" s="28">
         <v>6</v>
@@ -4072,7 +4388,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" s="28">
         <v>7</v>
@@ -4085,7 +4401,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
@@ -4098,7 +4414,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
@@ -4110,7 +4426,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
@@ -4122,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
@@ -4134,7 +4450,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
@@ -4146,7 +4462,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
@@ -4252,14 +4568,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="45"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4276,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4310,10 +4626,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4324,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="28">
         <v>0</v>
@@ -4339,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="29">
         <v>1</v>
@@ -4354,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="29">
         <v>2</v>
@@ -4485,7 +4801,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4496,7 +4812,7 @@
     <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="17" customWidth="1"/>
     <col min="8" max="8" width="21" style="17" customWidth="1"/>
     <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
@@ -4515,12 +4831,12 @@
       </c>
       <c r="C1" s="20">
         <f>COUNTA(3:3) - 1</f>
-        <v>5</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="43"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="44"/>
       <c r="F1" s="19"/>
       <c r="G1" s="24"/>
       <c r="H1" s="20"/>
@@ -4539,13 +4855,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>65</v>
+      <c r="G2" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4565,7 +4884,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -4579,13 +4901,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -4596,16 +4921,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4614,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -4624,6 +4952,9 @@
       </c>
       <c r="F6" s="17" t="b">
         <v>1</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4632,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="20">
         <v>3</v>
@@ -4650,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D8" s="20">
         <v>4</v>
@@ -4810,10 +5141,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -4832,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4866,10 +5197,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4886,7 +5217,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -5051,14 +5382,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="45"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -5077,7 +5408,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
@@ -5129,13 +5460,13 @@
         <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -5161,7 +5492,7 @@
         <v>48</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5170,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -5182,10 +5513,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5194,7 +5525,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -5206,10 +5537,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5218,7 +5549,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="41">
         <v>0</v>
@@ -5230,10 +5561,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -5320,11 +5651,302 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEC79ED-B798-4859-B026-FD7C2D71146A}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="43" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="26.25" style="43" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="37.125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21" style="17" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="25" style="17" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="43">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>4</v>
+      </c>
+      <c r="C1" s="43">
+        <f>COUNTA(3:3) - 1</f>
+        <v>5</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="43">
+        <v>2</v>
+      </c>
+      <c r="E6" s="43">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="43">
+        <v>3</v>
+      </c>
+      <c r="E7" s="43">
+        <v>1</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="43">
+        <v>4</v>
+      </c>
+      <c r="E8" s="43">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5356,22 +5978,22 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="45"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -5388,16 +6010,16 @@
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5417,7 +6039,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>41</v>
@@ -5443,13 +6065,13 @@
         <v>58</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="132" x14ac:dyDescent="0.3">
@@ -5463,13 +6085,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -5484,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="34">
         <v>3</v>
@@ -5508,7 +6130,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7" s="34">
         <v>3</v>
@@ -5532,7 +6154,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D8" s="34">
         <v>3</v>
@@ -5556,7 +6178,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" s="34">
         <v>3</v>
@@ -5580,7 +6202,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="34">
         <v>3</v>
@@ -5604,7 +6226,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="34">
         <v>3</v>
@@ -5628,7 +6250,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="34">
         <v>3</v>
@@ -5652,7 +6274,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="34">
         <v>3</v>
@@ -5676,7 +6298,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="34">
         <v>3</v>
@@ -5700,7 +6322,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15" s="34">
         <v>3</v>
@@ -5724,7 +6346,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="34">
         <v>3</v>
@@ -5748,7 +6370,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" s="34">
         <v>3</v>
@@ -5772,7 +6394,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -5796,7 +6418,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -5820,7 +6442,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -5844,7 +6466,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -5868,7 +6490,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
@@ -5892,7 +6514,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
@@ -5916,7 +6538,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
@@ -5940,7 +6562,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -5964,7 +6586,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
@@ -5988,7 +6610,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
@@ -6012,7 +6634,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
@@ -6036,7 +6658,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
@@ -6059,7 +6681,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D30" s="5">
         <v>5</v>
@@ -6082,7 +6704,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
@@ -6105,7 +6727,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D32" s="5">
         <v>5</v>
@@ -6128,7 +6750,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
@@ -6151,7 +6773,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
@@ -6174,7 +6796,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -6197,7 +6819,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -6220,7 +6842,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
@@ -6243,7 +6865,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
@@ -6266,7 +6888,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D39" s="5">
         <v>5</v>
@@ -6289,7 +6911,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
@@ -6312,7 +6934,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D41" s="5">
         <v>5</v>
@@ -6335,7 +6957,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
@@ -6358,7 +6980,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
@@ -6381,7 +7003,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D44" s="5">
         <v>10</v>
@@ -6404,7 +7026,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D45" s="5">
         <v>10</v>
@@ -6428,239 +7050,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
-  <dimension ref="A1:F32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="22" customWidth="1"/>
-    <col min="3" max="3" width="18" style="22" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="22" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="22">
-        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>3</v>
-      </c>
-      <c r="C1" s="22">
-        <f>COUNTA(3:3) - 1</f>
-        <v>5</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A659DF1-98F5-4D40-B36E-F620746A3BAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68602F4-7587-460C-8FE6-BC50225199B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="7.CameraControl" sheetId="19" r:id="rId4"/>
     <sheet name="8.ItemControl" sheetId="11" r:id="rId5"/>
     <sheet name="9.StressControl" sheetId="12" r:id="rId6"/>
-    <sheet name="10.Lock" sheetId="4" r:id="rId7"/>
+    <sheet name="10.LockControl" sheetId="4" r:id="rId7"/>
     <sheet name="11.StellaControl" sheetId="20" r:id="rId8"/>
     <sheet name="Interaction" sheetId="10" r:id="rId9"/>
     <sheet name="DollTalk" sheetId="14" r:id="rId10"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="275">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,15 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,,,
-0,,,
-0,,,
-0,,,
-0,,,
-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FALSE,,,
 TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,15 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRUE,,,
-TRUE,,,
-FALSE,,,
-TRUE,,,
-TRUE,,,
-FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나올 스크립트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,10 +498,6 @@
   </si>
   <si>
     <t>더미 아니마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -569,13 +547,6 @@
 더미 데이터2,,,
 더미 데이터3,,,
 더미 데이터4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인형이 바라보는 곳이 밝게 빛납니다.
-인형이 바라보는 곳과 주위가 밝게 빛납니다.
-인형이 바라보는 곳으로 더 멀리까지 빛을 방출합니다.
-인형이 주위로 더 멀리까지 빛을 방출합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1514,19 +1485,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>intNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stellaIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1실험동 제어실이라고 적힌 키 카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1실험동 1실험실이라고 적힌 키 카드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1661,6 +1620,56 @@
       </rPr>
       <t>Stella</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 아니마다 (더미임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인형이 바라보는 곳이 밝게 빛납니다.,,,
+인형이 바라보는 곳과 주위가 밝게 빛납니다.,,,
+인형이 바라보는 곳으로 더 멀리까지 빛을 방출합니다.,,,
+인형이 주위로 더 멀리까지 빛을 방출합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛을 내는 아니마다.
+작아서 그리 밝지는 않다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,,,
+0,,,
+0,,,
+0,,,
+0,,,
+0,,,
+0,,,
+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,,,
+TRUE,,,
+FALSE,,,
+TRUE,,,
+TRUE,,,
+FALSE,,,
+TRUE,,,
+FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텔라 더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1829,7 +1838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1960,6 +1969,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1968,9 +1986,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2281,10 +2296,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2297,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>46</v>
@@ -2357,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -2371,16 +2386,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2388,16 +2403,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2405,16 +2420,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2422,16 +2437,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -2439,16 +2454,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2456,16 +2471,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2473,16 +2488,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
@@ -2490,16 +2505,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2507,16 +2522,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2524,16 +2539,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2541,16 +2556,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -2558,16 +2573,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2575,16 +2590,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2592,16 +2607,16 @@
         <v>14</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2609,16 +2624,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2626,16 +2641,16 @@
         <v>16</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="66" x14ac:dyDescent="0.3">
@@ -2643,16 +2658,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2660,16 +2675,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2677,16 +2692,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2694,16 +2709,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2711,16 +2726,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -2728,16 +2743,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2745,16 +2760,16 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>228</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -2811,10 +2826,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2827,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>24</v>
@@ -2870,10 +2885,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -2884,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -2901,13 +2916,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -2918,13 +2933,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -3017,7 +3032,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3045,10 +3060,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3058,22 +3073,22 @@
         <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3113,19 +3128,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
@@ -3136,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -3148,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3159,22 +3174,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3280,12 +3295,13 @@
     <col min="4" max="4" width="17.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="25.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="15" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.875" customWidth="1"/>
-    <col min="8" max="12" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="52.125" customWidth="1"/>
+    <col min="8" max="8" width="49.625" customWidth="1"/>
+    <col min="9" max="12" width="8.625" customWidth="1"/>
     <col min="13" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -3295,15 +3311,15 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>6</v>
-      </c>
-      <c r="D1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -3323,10 +3339,13 @@
         <v>36</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -3348,8 +3367,11 @@
       <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -3363,16 +3385,19 @@
         <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -3392,74 +3417,83 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="107.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D6" s="23">
         <v>4</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F6" s="23">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
@@ -3542,7 +3576,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3568,10 +3602,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3622,7 +3656,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3664,13 +3698,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3678,13 +3712,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3692,13 +3726,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3979,10 +4013,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -4055,7 +4089,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4224,14 +4258,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="45"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="48"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4248,7 +4282,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4276,7 +4310,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4287,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D5" s="28">
         <v>1</v>
@@ -4299,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D6" s="28">
         <v>1</v>
@@ -4311,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D7" s="28">
         <v>2</v>
@@ -4324,7 +4358,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D8" s="28">
         <v>2</v>
@@ -4337,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D9" s="28">
         <v>4</v>
@@ -4350,7 +4384,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D10" s="28">
         <v>4</v>
@@ -4362,7 +4396,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D11" s="28">
         <v>5</v>
@@ -4375,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D12" s="28">
         <v>6</v>
@@ -4388,7 +4422,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D13" s="28">
         <v>7</v>
@@ -4401,7 +4435,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
@@ -4414,7 +4448,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
@@ -4426,7 +4460,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
@@ -4438,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
@@ -4450,7 +4484,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
@@ -4462,7 +4496,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
@@ -4568,14 +4602,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="45"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="48"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4592,10 +4626,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4626,10 +4660,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4640,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D5" s="28">
         <v>0</v>
@@ -4655,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="29">
         <v>1</v>
@@ -4670,7 +4704,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="29">
         <v>2</v>
@@ -4833,10 +4867,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="44"/>
+      <c r="D1" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="47"/>
       <c r="F1" s="19"/>
       <c r="G1" s="24"/>
       <c r="H1" s="20"/>
@@ -4864,7 +4898,7 @@
         <v>64</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4910,7 +4944,7 @@
         <v>66</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -4930,10 +4964,10 @@
         <v>68</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4942,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -4954,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4963,7 +4997,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D7" s="20">
         <v>3</v>
@@ -4981,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D8" s="20">
         <v>4</v>
@@ -5141,10 +5175,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -5166,7 +5200,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5200,7 +5234,7 @@
         <v>71</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -5217,7 +5251,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -5354,7 +5388,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5382,14 +5416,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -5408,7 +5442,7 @@
         <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
@@ -5460,13 +5494,13 @@
         <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -5492,7 +5526,7 @@
         <v>48</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5501,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -5513,10 +5547,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5525,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -5537,10 +5571,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5549,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D8" s="41">
         <v>0</v>
@@ -5561,10 +5595,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -5655,7 +5689,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5680,16 +5714,16 @@
       </c>
       <c r="B1" s="43">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="43">
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="44"/>
+      <c r="D1" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="47"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -5707,13 +5741,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5747,16 +5781,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>269</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -5764,71 +5798,46 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>68</v>
+        <v>267</v>
+      </c>
+      <c r="D5" s="43">
+        <v>0</v>
+      </c>
+      <c r="E5" s="43">
+        <v>1</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="D6" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="43">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>265</v>
+      <c r="F6" s="46" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="43">
-        <v>3</v>
-      </c>
-      <c r="E7" s="43">
-        <v>1</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>272</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="43">
-        <v>4</v>
-      </c>
-      <c r="E8" s="43">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>271</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
@@ -5943,10 +5952,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5972,28 +5981,28 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B1997)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="46"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -6010,16 +6019,16 @@
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -6065,13 +6074,13 @@
         <v>58</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="132" x14ac:dyDescent="0.3">
@@ -6085,13 +6094,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -6106,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D6" s="34">
         <v>3</v>
@@ -6130,7 +6139,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D7" s="34">
         <v>3</v>
@@ -6154,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D8" s="34">
         <v>3</v>
@@ -6178,7 +6187,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D9" s="34">
         <v>3</v>
@@ -6202,7 +6211,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D10" s="34">
         <v>3</v>
@@ -6226,7 +6235,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D11" s="34">
         <v>3</v>
@@ -6250,7 +6259,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D12" s="34">
         <v>3</v>
@@ -6274,7 +6283,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D13" s="34">
         <v>3</v>
@@ -6298,7 +6307,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D14" s="34">
         <v>3</v>
@@ -6322,7 +6331,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D15" s="34">
         <v>3</v>
@@ -6346,7 +6355,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D16" s="34">
         <v>3</v>
@@ -6370,7 +6379,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D17" s="34">
         <v>3</v>
@@ -6394,7 +6403,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -6418,7 +6427,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -6442,7 +6451,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -6466,7 +6475,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -6490,7 +6499,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D22" s="5">
         <v>3</v>
@@ -6514,7 +6523,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
@@ -6538,7 +6547,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
@@ -6562,7 +6571,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -6586,7 +6595,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
@@ -6610,7 +6619,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
@@ -6634,7 +6643,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
@@ -6658,7 +6667,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
@@ -6681,7 +6690,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D30" s="5">
         <v>5</v>
@@ -6704,7 +6713,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
@@ -6727,7 +6736,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D32" s="5">
         <v>5</v>
@@ -6750,7 +6759,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
@@ -6773,7 +6782,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
@@ -6796,7 +6805,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -6819,7 +6828,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -6842,7 +6851,7 @@
         <v>32</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
@@ -6865,7 +6874,7 @@
         <v>33</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
@@ -6888,7 +6897,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D39" s="5">
         <v>5</v>
@@ -6911,7 +6920,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
@@ -6934,7 +6943,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D41" s="5">
         <v>5</v>
@@ -6957,7 +6966,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
@@ -6980,7 +6989,7 @@
         <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
@@ -7003,7 +7012,7 @@
         <v>39</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D44" s="5">
         <v>10</v>
@@ -7026,7 +7035,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D45" s="5">
         <v>10</v>
@@ -7042,6 +7051,29 @@
       </c>
       <c r="H45" s="17" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>100</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" s="5">
+        <v>11</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68602F4-7587-460C-8FE6-BC50225199B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D4D14-E12B-42B2-9E03-EA1CAD0F3FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="286">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1670,6 +1670,58 @@
   </si>
   <si>
     <t>스텔라 더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"서측 1실험동 1실험실" 이라고 적힌 키카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"서측 1실험동 제어실" 이라고 적힌 키카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,,,
+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-E1 문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,,,
+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,,,
+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,,,
+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,,,
+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE,,,
+FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,,,
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 아이템이 있을 시 
+출력될 문자열 배열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1838,7 +1890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1971,6 +2023,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2269,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2296,10 +2351,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2799,7 +2854,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2826,10 +2881,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3060,10 +3115,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3313,10 +3368,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -3602,10 +3657,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -4013,10 +4068,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -4258,14 +4313,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4602,14 +4657,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="48"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4835,7 +4890,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4846,8 +4901,7 @@
     <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="17" customWidth="1"/>
-    <col min="8" max="8" width="21" style="17" customWidth="1"/>
+    <col min="7" max="8" width="42.75" style="17" customWidth="1"/>
     <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
@@ -4867,10 +4921,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="19"/>
       <c r="G1" s="24"/>
       <c r="H1" s="20"/>
@@ -5008,6 +5062,9 @@
       <c r="F7" s="17" t="b">
         <v>1</v>
       </c>
+      <c r="G7" s="17" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
@@ -5025,6 +5082,9 @@
       </c>
       <c r="F8" s="17" t="b">
         <v>1</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -5175,10 +5235,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -5387,8 +5447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5416,14 +5476,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -5448,7 +5508,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5559,10 +5619,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="D7" s="36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="36">
         <v>1</v>
@@ -5586,7 +5646,7 @@
         <v>123</v>
       </c>
       <c r="D8" s="41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="41">
         <v>1</v>
@@ -5689,7 +5749,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5720,10 +5780,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -5954,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5987,22 +6047,22 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="49"/>
+      <c r="K1" s="50"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -6277,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
@@ -6285,14 +6345,14 @@
       <c r="C13" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="34">
-        <v>3</v>
-      </c>
-      <c r="E13" s="17">
-        <v>8</v>
-      </c>
-      <c r="F13" s="17" t="b">
-        <v>0</v>
+      <c r="D13" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>283</v>
       </c>
       <c r="G13" s="17" t="b">
         <v>1</v>
@@ -6493,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="3">
         <v>17</v>
@@ -6501,20 +6561,20 @@
       <c r="C22" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
-      <c r="E22" s="17">
-        <v>17</v>
-      </c>
-      <c r="F22" s="17" t="b">
-        <v>0</v>
+      <c r="D22" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>283</v>
       </c>
       <c r="G22" s="17" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -6664,7 +6724,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="3">
-        <v>24</v>
+        <v>50001</v>
       </c>
       <c r="C29" s="39" t="s">
         <v>231</v>
@@ -6687,7 +6747,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
-        <v>25</v>
+        <v>50002</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>234</v>
@@ -6710,7 +6770,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
-        <v>26</v>
+        <v>50003</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>233</v>
@@ -6731,32 +6791,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
-        <v>27</v>
+        <v>50004</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="D32" s="5">
-        <v>5</v>
-      </c>
-      <c r="E32" s="17">
-        <v>4</v>
-      </c>
-      <c r="F32" s="17" t="b">
-        <v>1</v>
+      <c r="D32" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="G32" s="17" t="b">
         <v>1</v>
       </c>
       <c r="H32" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
-        <v>28</v>
+        <v>50005</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>236</v>
@@ -6777,32 +6837,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
-        <v>29</v>
+        <v>50006</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="5">
-        <v>5</v>
-      </c>
-      <c r="E34" s="17">
-        <v>6</v>
-      </c>
-      <c r="F34" s="17" t="b">
-        <v>1</v>
+      <c r="D34" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="G34" s="17" t="b">
         <v>1</v>
       </c>
       <c r="H34" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
-        <v>30</v>
+        <v>50007</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>238</v>
@@ -6825,7 +6885,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
-        <v>31</v>
+        <v>50008</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>239</v>
@@ -6848,7 +6908,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
-        <v>32</v>
+        <v>50009</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>232</v>
@@ -6871,7 +6931,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
-        <v>33</v>
+        <v>50010</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>240</v>
@@ -6894,7 +6954,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
-        <v>34</v>
+        <v>50011</v>
       </c>
       <c r="C39" s="39" t="s">
         <v>241</v>
@@ -6917,7 +6977,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
-        <v>35</v>
+        <v>50012</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>242</v>
@@ -6940,7 +7000,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
-        <v>36</v>
+        <v>50013</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>243</v>
@@ -6963,7 +7023,7 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
-        <v>37</v>
+        <v>50014</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>244</v>
@@ -6986,7 +7046,7 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
-        <v>38</v>
+        <v>100001</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>246</v>
@@ -7009,7 +7069,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
-        <v>39</v>
+        <v>100002</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>247</v>
@@ -7032,7 +7092,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
-        <v>40</v>
+        <v>100003</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>248</v>
@@ -7055,7 +7115,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
-        <v>100</v>
+        <v>110000</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>274</v>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D4D14-E12B-42B2-9E03-EA1CAD0F3FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997E0F0A-5FF1-4F99-A817-703CAD430672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -3631,7 +3631,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4280,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110EC30-6882-475E-92CA-491FCED2A75A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5447,8 +5447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AA22FC-BDCD-4895-ABF2-E020EACE520B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5622,10 +5622,10 @@
         <v>278</v>
       </c>
       <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
         <v>3</v>
-      </c>
-      <c r="E7" s="36">
-        <v>1</v>
       </c>
       <c r="F7" s="36">
         <v>1</v>
@@ -5646,10 +5646,10 @@
         <v>123</v>
       </c>
       <c r="D8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
         <v>4</v>
-      </c>
-      <c r="E8" s="41">
-        <v>1</v>
       </c>
       <c r="F8" s="41">
         <v>1</v>
@@ -6014,8 +6014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6811,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -6857,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997E0F0A-5FF1-4F99-A817-703CAD430672}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604C5B3-696E-456A-8B24-BCE91EA6C66A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="288">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1715,13 +1715,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8,,,
-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필요한 아이템이 있을 시 
 출력될 문자열 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,,,
+8,,,
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,,,
+2,,,
+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,,,
+TRUE,,,
+TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2324,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4280,7 +4293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110EC30-6882-475E-92CA-491FCED2A75A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4625,7 +4638,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5508,7 +5521,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5749,7 +5762,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6014,8 +6027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6337,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>8</v>
@@ -6346,13 +6359,13 @@
         <v>209</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G13" s="17" t="b">
         <v>1</v>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604C5B3-696E-456A-8B24-BCE91EA6C66A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E911D-0013-47DD-BF8E-65B859985632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="267">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -895,58 +895,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W1-E2_선반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-R1_침대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-R1_책상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-R1_실험기구선반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-R1_큰책상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-R1_욕조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-R1_옷장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E2_시체(연구원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E2_연구용분석컴퓨터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E2_연구원용PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E2_아니마분석장치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E2_실험기구선반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E2_아니마격리시설(1형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연구실에서 쓰인 듯 한 컴퓨터들이다,,,
 전원은 들어오지 않는다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -962,48 +910,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W1-E1_아니마격리시설(대)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E1_연구원용PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E1_아니마격리시설(1형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E1_연구원시체(카드키)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방의 중앙을 가득 채운 거대한 수조다,,,
 무엇인가 안에 있었던게 분명하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-C_제어패널(전원x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-C_제어패널(전원o)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-C_비상전원차단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-R2_스텔라(빛)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-R2_전원이켜진노트북(첫조사)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1299,10 +1211,6 @@
   </si>
   <si>
     <t>W1R2노트북(전원O)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W1-E2_시체발견트리거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1735,6 +1643,14 @@
     <t>TRUE,,,
 TRUE,,,
 TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2337,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2346,7 +2262,7 @@
     <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="63.125" style="5" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="31.5" customWidth="1"/>
     <col min="7" max="7" width="19.875" customWidth="1"/>
@@ -2429,7 +2345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -2437,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>75</v>
@@ -2454,149 +2370,149 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>148</v>
+      <c r="C7" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>149</v>
+      <c r="C8" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>151</v>
+      <c r="C9" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>150</v>
+      <c r="C10" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>152</v>
+      <c r="C11" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>146</v>
+      <c r="C12" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="99" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>153</v>
+      <c r="C13" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>154</v>
+      <c r="C14" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>112</v>
@@ -2606,48 +2522,48 @@
       <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>155</v>
+      <c r="C15" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>156</v>
+      <c r="C16" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>157</v>
+      <c r="C17" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>112</v>
@@ -2657,45 +2573,45 @@
       <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>158</v>
+      <c r="C18" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>162</v>
+      <c r="C19" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>163</v>
+      <c r="C20" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>144</v>
@@ -2708,48 +2624,48 @@
       <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>164</v>
+      <c r="C21" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>165</v>
+      <c r="C22" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>18</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>168</v>
+      <c r="C23" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>112</v>
@@ -2759,85 +2675,85 @@
       <c r="B24" s="3">
         <v>19</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>169</v>
+      <c r="C24" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>20</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>170</v>
+      <c r="C25" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>21</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>171</v>
+      <c r="C26" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>22</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>172</v>
+      <c r="C27" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>23</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>224</v>
+      <c r="C28" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -2956,7 +2872,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3509,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>106</v>
@@ -3780,13 +3696,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3794,13 +3710,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4293,8 +4209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110EC30-6882-475E-92CA-491FCED2A75A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4401,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D6" s="28">
         <v>1</v>
@@ -4413,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D7" s="28">
         <v>2</v>
@@ -4426,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D8" s="28">
         <v>2</v>
@@ -4439,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D9" s="28">
         <v>4</v>
@@ -4452,7 +4368,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D10" s="28">
         <v>4</v>
@@ -4464,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D11" s="28">
         <v>5</v>
@@ -4477,7 +4393,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D12" s="28">
         <v>6</v>
@@ -4490,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D13" s="28">
         <v>7</v>
@@ -4503,7 +4419,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
@@ -4516,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
@@ -4528,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
@@ -4540,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
@@ -4552,7 +4468,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
@@ -4564,7 +4480,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
@@ -4965,7 +4881,7 @@
         <v>64</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5011,7 +4927,7 @@
         <v>66</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -5034,7 +4950,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -5055,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -5064,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D7" s="20">
         <v>3</v>
@@ -5076,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -5085,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D8" s="20">
         <v>4</v>
@@ -5097,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -5521,7 +5437,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5620,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>127</v>
@@ -5632,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -5644,10 +5560,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5668,10 +5584,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -5814,13 +5730,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5854,13 +5770,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5871,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D5" s="43">
         <v>0</v>
@@ -5880,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -5889,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="D6" s="43">
         <v>1</v>
@@ -5898,7 +5814,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6027,8 +5943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6069,7 +5985,7 @@
       </c>
       <c r="G1" s="48"/>
       <c r="H1" s="48" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="I1" s="48"/>
       <c r="J1" s="48" t="s">
@@ -6167,13 +6083,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -6188,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D6" s="34">
         <v>3</v>
@@ -6212,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D7" s="34">
         <v>3</v>
@@ -6236,7 +6152,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D8" s="34">
         <v>3</v>
@@ -6260,7 +6176,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D9" s="34">
         <v>3</v>
@@ -6284,7 +6200,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D10" s="34">
         <v>3</v>
@@ -6308,7 +6224,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D11" s="34">
         <v>3</v>
@@ -6332,7 +6248,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D12" s="34">
         <v>3</v>
@@ -6356,16 +6272,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="G13" s="17" t="b">
         <v>1</v>
@@ -6380,7 +6296,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D14" s="34">
         <v>3</v>
@@ -6404,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D15" s="34">
         <v>3</v>
@@ -6428,7 +6344,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D16" s="34">
         <v>3</v>
@@ -6452,7 +6368,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="D17" s="34">
         <v>3</v>
@@ -6476,7 +6392,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -6500,7 +6416,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -6524,7 +6440,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -6548,7 +6464,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -6572,16 +6488,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="G22" s="17" t="b">
         <v>1</v>
@@ -6596,7 +6512,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
@@ -6620,7 +6536,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
@@ -6644,7 +6560,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -6668,7 +6584,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
@@ -6692,7 +6608,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
@@ -6716,7 +6632,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
@@ -6740,7 +6656,7 @@
         <v>50001</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
@@ -6763,7 +6679,7 @@
         <v>50002</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D30" s="5">
         <v>5</v>
@@ -6786,7 +6702,7 @@
         <v>50003</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
@@ -6809,13 +6725,13 @@
         <v>50004</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>72</v>
@@ -6832,7 +6748,7 @@
         <v>50005</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
@@ -6855,13 +6771,13 @@
         <v>50006</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="F34" s="47" t="s">
         <v>72</v>
@@ -6878,7 +6794,7 @@
         <v>50007</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -6901,7 +6817,7 @@
         <v>50008</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -6924,7 +6840,7 @@
         <v>50009</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
@@ -6947,7 +6863,7 @@
         <v>50010</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
@@ -6970,7 +6886,7 @@
         <v>50011</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D39" s="5">
         <v>5</v>
@@ -6993,7 +6909,7 @@
         <v>50012</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
@@ -7016,7 +6932,7 @@
         <v>50013</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D41" s="5">
         <v>5</v>
@@ -7039,7 +6955,7 @@
         <v>50014</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
@@ -7062,7 +6978,7 @@
         <v>100001</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
@@ -7085,7 +7001,7 @@
         <v>100002</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D44" s="5">
         <v>10</v>
@@ -7108,7 +7024,7 @@
         <v>100003</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D45" s="5">
         <v>10</v>
@@ -7131,7 +7047,7 @@
         <v>110000</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="D46" s="5">
         <v>11</v>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E911D-0013-47DD-BF8E-65B859985632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF32C49E-D1B2-4F61-8F0C-E8A14CF0EAE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="297">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,11 +883,6 @@
 5_1.SceneMovePoint 복사해서
 beforeSceneName, idx 설정 필요</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>girl_idle,,,
-girl_idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1550,11 +1545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빛을 내는 아니마다.
-작아서 그리 밝지는 않다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,,,
 0,,,
 0,,,
@@ -1646,11 +1636,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dummy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소녀</t>
+    <t>타이틀 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미</t>
+  </si>
+  <si>
+    <t>W1-R1_침대</t>
+  </si>
+  <si>
+    <t>W1-R1_책상</t>
+  </si>
+  <si>
+    <t>W1-R1_실험기구선반</t>
+  </si>
+  <si>
+    <t>W1-R1_욕조</t>
+  </si>
+  <si>
+    <t>W1-R1_큰책상</t>
+  </si>
+  <si>
+    <t>W1-R1_옷장</t>
+  </si>
+  <si>
+    <t>W1-E2_선반</t>
+  </si>
+  <si>
+    <t>W1-E2_시체(연구원)</t>
+  </si>
+  <si>
+    <t>W1-E2_연구용분석컴퓨터</t>
+  </si>
+  <si>
+    <t>W1-E2_연구원용PC</t>
+  </si>
+  <si>
+    <t>W1-E2_아니마분석장치</t>
+  </si>
+  <si>
+    <t>W1-E2_실험기구선반</t>
+  </si>
+  <si>
+    <t>W1-E2_아니마격리시설(1형)</t>
+  </si>
+  <si>
+    <t>W1-E1_아니마격리시설(대)</t>
+  </si>
+  <si>
+    <t>W1-E1_연구원용PC</t>
+  </si>
+  <si>
+    <t>W1-E1_아니마격리시설(1형)</t>
+  </si>
+  <si>
+    <t>W1-E1_연구원시체(카드키)</t>
+  </si>
+  <si>
+    <t>W1-C_제어패널(전원x)</t>
+  </si>
+  <si>
+    <t>W1-C_제어패널(전원o)</t>
+  </si>
+  <si>
+    <t>W1-C_비상전원차단</t>
+  </si>
+  <si>
+    <t>W1-R2_스텔라(빛)</t>
+  </si>
+  <si>
+    <t>W1-R2_전원이켜진노트북(첫조사)</t>
+  </si>
+  <si>
+    <t>W1-E2_시체발견트리거</t>
+  </si>
+  <si>
+    <t>,,,
+소녀,,,
+소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,,,
+소녀,,,
+소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,,,
+소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소녀,,,
+소녀,,,
+소녀,,,
+소녀,,,
+소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀,,,
+소녀,,,
+소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스스로 발광했다가 사그라들었다가 하는 아니마.
+빛이 그렇게 밝아보이지는 않는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1819,7 +1925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1952,6 +2058,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2251,24 +2360,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="63.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="63.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="33.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -2278,14 +2388,14 @@
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
-        <v>5</v>
-      </c>
-      <c r="D1" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -2296,16 +2406,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -2324,8 +2437,11 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -2336,16 +2452,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -2356,16 +2475,19 @@
         <v>265</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -2373,404 +2495,473 @@
         <v>266</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>154</v>
+        <v>267</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="99" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="G15" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>167</v>
+        <v>277</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>146</v>
+        <v>280</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>147</v>
+        <v>281</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="F22" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>202</v>
+        <v>288</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>295</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="F28" s="40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2810,10 +3001,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2872,7 +3063,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -3044,10 +3235,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3297,10 +3488,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -3425,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H6" s="45" t="s">
         <v>106</v>
@@ -3586,10 +3777,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3696,13 +3887,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3710,13 +3901,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>230</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3997,10 +4188,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -4209,7 +4400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110EC30-6882-475E-92CA-491FCED2A75A}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4242,14 +4433,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4317,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="28">
         <v>1</v>
@@ -4329,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="28">
         <v>2</v>
@@ -4342,7 +4533,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" s="28">
         <v>2</v>
@@ -4355,7 +4546,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" s="28">
         <v>4</v>
@@ -4368,7 +4559,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" s="28">
         <v>4</v>
@@ -4380,7 +4571,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="28">
         <v>5</v>
@@ -4393,7 +4584,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="28">
         <v>6</v>
@@ -4406,7 +4597,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="28">
         <v>7</v>
@@ -4419,7 +4610,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
@@ -4432,7 +4623,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
@@ -4444,7 +4635,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
@@ -4456,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
@@ -4468,7 +4659,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
@@ -4480,7 +4671,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
@@ -4586,14 +4777,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4850,10 +5041,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="19"/>
       <c r="G1" s="24"/>
       <c r="H1" s="20"/>
@@ -4881,7 +5072,7 @@
         <v>64</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4927,7 +5118,7 @@
         <v>66</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -4950,7 +5141,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4971,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4980,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="20">
         <v>3</v>
@@ -4992,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -5001,7 +5192,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="20">
         <v>4</v>
@@ -5013,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -5164,10 +5355,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -5377,7 +5568,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5405,14 +5596,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -5437,7 +5628,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5536,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>127</v>
@@ -5548,7 +5739,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -5560,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5584,10 +5775,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -5678,7 +5869,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5709,10 +5900,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -5730,13 +5921,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5770,13 +5961,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5787,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D5" s="43">
         <v>0</v>
@@ -5796,16 +5987,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="43">
         <v>1</v>
@@ -5814,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5943,8 +6134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CAB882-5B91-45F8-A9D0-9CFD48B56FD2}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5976,22 +6167,22 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -6083,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G5" s="5" t="b">
         <v>1</v>
@@ -6104,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="34">
         <v>3</v>
@@ -6128,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="34">
         <v>3</v>
@@ -6152,7 +6343,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="34">
         <v>3</v>
@@ -6176,7 +6367,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="34">
         <v>3</v>
@@ -6200,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="34">
         <v>3</v>
@@ -6224,7 +6415,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="34">
         <v>3</v>
@@ -6248,7 +6439,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" s="34">
         <v>3</v>
@@ -6272,16 +6463,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="47" t="s">
         <v>262</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>264</v>
       </c>
       <c r="G13" s="17" t="b">
         <v>1</v>
@@ -6296,7 +6487,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="34">
         <v>3</v>
@@ -6320,7 +6511,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="34">
         <v>3</v>
@@ -6344,7 +6535,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34">
         <v>3</v>
@@ -6368,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="34">
         <v>3</v>
@@ -6392,7 +6583,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -6416,7 +6607,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -6440,7 +6631,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -6464,7 +6655,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
@@ -6488,16 +6679,16 @@
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="47" t="s">
         <v>258</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>260</v>
       </c>
       <c r="G22" s="17" t="b">
         <v>1</v>
@@ -6512,7 +6703,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="5">
         <v>3</v>
@@ -6536,7 +6727,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
@@ -6560,7 +6751,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="5">
         <v>3</v>
@@ -6584,7 +6775,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D26" s="5">
         <v>3</v>
@@ -6608,7 +6799,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
@@ -6632,7 +6823,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
@@ -6656,7 +6847,7 @@
         <v>50001</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
@@ -6679,7 +6870,7 @@
         <v>50002</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D30" s="5">
         <v>5</v>
@@ -6702,7 +6893,7 @@
         <v>50003</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
@@ -6725,13 +6916,13 @@
         <v>50004</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" s="47" t="s">
         <v>254</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>256</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>72</v>
@@ -6748,7 +6939,7 @@
         <v>50005</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D33" s="5">
         <v>5</v>
@@ -6771,13 +6962,13 @@
         <v>50006</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F34" s="47" t="s">
         <v>72</v>
@@ -6794,7 +6985,7 @@
         <v>50007</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D35" s="5">
         <v>5</v>
@@ -6817,7 +7008,7 @@
         <v>50008</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
@@ -6840,7 +7031,7 @@
         <v>50009</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="5">
         <v>5</v>
@@ -6863,7 +7054,7 @@
         <v>50010</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D38" s="5">
         <v>5</v>
@@ -6886,7 +7077,7 @@
         <v>50011</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D39" s="5">
         <v>5</v>
@@ -6909,7 +7100,7 @@
         <v>50012</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
@@ -6932,7 +7123,7 @@
         <v>50013</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="5">
         <v>5</v>
@@ -6955,7 +7146,7 @@
         <v>50014</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="5">
         <v>5</v>
@@ -6978,7 +7169,7 @@
         <v>100001</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
@@ -7001,7 +7192,7 @@
         <v>100002</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D44" s="5">
         <v>10</v>
@@ -7024,7 +7215,7 @@
         <v>100003</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D45" s="5">
         <v>10</v>
@@ -7047,7 +7238,7 @@
         <v>110000</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D46" s="5">
         <v>11</v>

--- a/bin/Assets/Resources/IngameData/DataBase.xlsx
+++ b/bin/Assets/Resources/IngameData/DataBase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF32C49E-D1B2-4F61-8F0C-E8A14CF0EAE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40D7A35-3CD5-4069-92E1-8A68FD5DB9AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="897" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Item" sheetId="1" r:id="rId13"/>
     <sheet name="SaveData" sheetId="7" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="306">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,16 +362,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더할거면 true
-뺄거면 false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAddList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,39 +419,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인형과의 더미 대화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True,,,
-True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소녀가 말하고 있는 지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미2데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>False,,,
-False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이걸 보고 있다면 이게 왜 작동하는지 의문을 가지십쇼,,,
-한 줄 밖에 없어서 추가함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘 작동합니다 예,,,
-한줄이 없어서 추가함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1598,41 +1557,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,,,
-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,,,
-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE,,,
-FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필요한 아이템이 있을 시 
 출력될 문자열 배열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,,,
-8,,,
-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,,,
-2,,,
-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE,,,
-TRUE,,,
-TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1757,6 +1683,144 @@
   <si>
     <t>스스로 발광했다가 사그라들었다가 하는 아니마.
 빛이 그렇게 밝아보이지는 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화_2</t>
+  </si>
+  <si>
+    <t>대화_3</t>
+  </si>
+  <si>
+    <t>대화_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE,,,
+TRUE,,,
+FALSE,,,
+TRUE,,,
+TRUE,,,
+FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데, 보통 사람들은 인형이 말하거나 그러면
+이상하게 생각하지 않아?,,,
+그렇겠지, 아마.,,,
+근데 넌 왜…,,,
+왜 아무렇지도 않은거냐고? 글쎄다.,,,
+내가 보통 사람이 아닌가보지 뭐.,,,
+…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,,,
+FALSE,,,
+TRUE,,,
+FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심심해…,,,
+…,,,
+심심해, 심심해, 심심해!,,,
+…후우…,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE,,,
+TRUE,,,
+FALSE,,,
+TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현실에서도 말할 수 있는데, 예전에는 굳이 왜 꿈 속에서만 말했던 거야?,,,
+일단 우리들의 정보는 사람들한테는 비밀이거든.,,,
+그리고 굳이 말하는 인형이라고 해봐야 내게 도움되는 점이 없잖아.,,,
+그..렇긴 하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,,,
+FALSE,,,
+FALSE,,,
+TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 말야,,,
+..응?,,,
+넌 인형이야, 아니면 네가 조종하고 있는 게 인형인거야?,,,
+글쎄. 그렇게 딱 부러지게 말하기 좀 애매한데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1-2_시체발견이후대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소녀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으으..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_embarrass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,,,
+TRUE,,,
+TRUE,,,
+TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1E시체발견후대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,,,
+8,,,
+3,,,
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,,,
+2,,,
+24,,,
+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,,,
+8,,,
+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,,,
+3,,,
+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE,,,
+TRUE,,,
+TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1925,7 +1989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2058,6 +2122,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2362,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832805E4-0782-4655-A785-00158A6E98A6}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2384,16 +2454,16 @@
       </c>
       <c r="B1" s="5">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5">
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="49"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -2406,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>46</v>
@@ -2452,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>49</v>
@@ -2472,19 +2542,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -2492,19 +2562,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2512,19 +2582,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2532,19 +2602,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2552,19 +2622,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2572,19 +2642,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2592,19 +2662,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2612,19 +2682,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -2632,19 +2702,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2652,19 +2722,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2672,19 +2742,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2692,19 +2762,19 @@
         <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2712,19 +2782,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2732,19 +2802,19 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2752,19 +2822,19 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2772,19 +2842,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2792,19 +2862,19 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2812,19 +2882,19 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2832,19 +2902,19 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2852,19 +2922,19 @@
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
@@ -2872,19 +2942,19 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2892,19 +2962,19 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="33" x14ac:dyDescent="0.3">
@@ -2912,19 +2982,19 @@
         <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2932,23 +3002,40 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D28" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>24</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
+      <c r="E29" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
@@ -2974,7 +3061,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2982,7 +3069,7 @@
     <col min="1" max="1" width="18.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="22" customWidth="1"/>
     <col min="3" max="3" width="18" style="22" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="63.375" style="22" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="22" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="17" customWidth="1"/>
     <col min="7" max="7" width="24.625" style="17" customWidth="1"/>
@@ -2995,16 +3082,16 @@
       </c>
       <c r="B1" s="22">
         <f xml:space="preserve"> COUNTA(B5:B2000)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="22">
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3017,10 +3104,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>24</v>
@@ -3040,7 +3127,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>1</v>
@@ -3060,13 +3147,13 @@
         <v>49</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
@@ -3074,63 +3161,84 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>82</v>
+      <c r="C7" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="F7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="B8" s="22">
+        <v>3</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
+      <c r="C10" s="49"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
+      <c r="C12" s="49"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
@@ -3235,10 +3343,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3248,22 +3356,22 @@
         <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3303,19 +3411,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
@@ -3326,22 +3434,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3349,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -3361,10 +3469,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3488,10 +3596,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -3514,7 +3622,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>8</v>
@@ -3560,13 +3668,13 @@
         <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>6</v>
@@ -3592,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>7</v>
@@ -3604,22 +3712,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D6" s="23">
         <v>4</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F6" s="23">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3777,10 +3885,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
@@ -3831,7 +3939,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3873,13 +3981,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3887,13 +3995,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3901,13 +4009,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4188,10 +4296,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="5"/>
@@ -4264,7 +4372,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4433,14 +4541,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="52"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4457,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4485,7 +4593,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4496,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D5" s="28">
         <v>1</v>
@@ -4508,7 +4616,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D6" s="28">
         <v>1</v>
@@ -4520,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D7" s="28">
         <v>2</v>
@@ -4533,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D8" s="28">
         <v>2</v>
@@ -4546,7 +4654,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D9" s="28">
         <v>4</v>
@@ -4559,7 +4667,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D10" s="28">
         <v>4</v>
@@ -4571,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D11" s="28">
         <v>5</v>
@@ -4584,7 +4692,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D12" s="28">
         <v>6</v>
@@ -4597,7 +4705,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D13" s="28">
         <v>7</v>
@@ -4610,7 +4718,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D14" s="28">
         <v>3</v>
@@ -4623,7 +4731,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D15" s="28">
         <v>3</v>
@@ -4635,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D16" s="28">
         <v>3</v>
@@ -4647,7 +4755,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D17" s="28">
         <v>3</v>
@@ -4659,7 +4767,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D18" s="28">
         <v>3</v>
@@ -4671,7 +4779,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D19" s="28">
         <v>3</v>
@@ -4777,14 +4885,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="52"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
@@ -4801,10 +4909,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4835,10 +4943,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4849,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D5" s="28">
         <v>0</v>
@@ -4864,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D6" s="29">
         <v>1</v>
@@ -4879,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D7" s="29">
         <v>2</v>
@@ -5007,10 +5115,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE0F44A-9C18-4C33-A0A2-0F0DFC6F241E}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5020,16 +5128,15 @@
     <col min="3" max="3" width="23.125" style="20" customWidth="1"/>
     <col min="4" max="4" width="26.25" style="20" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="17" customWidth="1"/>
-    <col min="7" max="8" width="42.75" style="17" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="17" customWidth="1"/>
-    <col min="10" max="10" width="25" style="17" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="17" customWidth="1"/>
-    <col min="12" max="12" width="12" style="17" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="17"/>
+    <col min="6" max="7" width="42.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="25" style="17" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="17" customWidth="1"/>
+    <col min="11" max="11" width="12" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -5039,20 +5146,19 @@
       </c>
       <c r="C1" s="20">
         <f>COUNTA(3:3) - 1</f>
-        <v>6</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
@@ -5069,13 +5175,10 @@
         <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
@@ -5092,13 +5195,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
@@ -5112,16 +5212,13 @@
         <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
@@ -5129,28 +5226,25 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D6" s="20">
         <v>2</v>
@@ -5158,20 +5252,17 @@
       <c r="E6" s="20">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D7" s="20">
         <v>3</v>
@@ -5179,20 +5270,17 @@
       <c r="E7" s="20">
         <v>1</v>
       </c>
-      <c r="F7" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D8" s="20">
         <v>4</v>
@@ -5200,47 +5288,44 @@
       <c r="E8" s="20">
         <v>1</v>
       </c>
-      <c r="F8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="3"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
     </row>
@@ -5323,7 +5408,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5355,10 +5440,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
@@ -5377,10 +5462,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -5411,10 +5496,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -5431,7 +5516,7 @@
         <v>-10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -5596,14 +5681,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -5622,13 +5707,13 @@
         <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -5674,13 +5759,13 @@
         <v>59</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -5706,7 +5791,7 @@
         <v>48</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5715,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -5727,10 +5812,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5739,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -5751,10 +5836,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -5763,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D8" s="41">
         <v>0</v>
@@ -5775,10 +5860,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -5900,10 +5985,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="49"/>
+      <c r="D1" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="51"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -5921,13 +6006,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5961,13 +6046,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5978,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D5" s="43">
         <v>0</v>
@@ -5987,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -5996,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D6" s="43">
         <v>1</v>
@@ -6005,7 +6090,7 @@
         <v>1</v>
       </c